--- a/ReportsAndDocuments/Products Table.xlsx
+++ b/ReportsAndDocuments/Products Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://productcare-my.sharepoint.com/personal/narachchi_productcare_org/Documents/Desktop/Member Inquiry - ML Project/Originals/Exported/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="710" documentId="8_{09781430-8970-4F6C-837D-BD273C6253D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33F8B1B1-9051-4204-8380-4EDDEFAE6140}"/>
+  <xr:revisionPtr revIDLastSave="1173" documentId="8_{09781430-8970-4F6C-837D-BD273C6253D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D245EC72-6EB6-4549-97BB-80822C081079}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1725" windowWidth="29040" windowHeight="15720" xr2:uid="{A97E8DE1-7EAA-465B-9398-8DE522110DAD}"/>
+    <workbookView xWindow="-28920" yWindow="-6885" windowWidth="29040" windowHeight="15720" xr2:uid="{A97E8DE1-7EAA-465B-9398-8DE522110DAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="89">
   <si>
     <t>Includes all diameters and light outputs, shaped fluorescent tubes, and UV-A and UV-B tubes.</t>
   </si>
   <si>
     <t>Fluorescent bulbs that are typically similar in size and intended to replace an incandescent (traditional) light bulb, including pin-type sockets, covered CFLs and various output wattages. Includes screw-in induction lamps.</t>
-  </si>
-  <si>
-    <t>Includes all HID technologies, such as High Pressure Sodium, Low Pressure Sodium (HPS), Mercury Vapour and Metal   Halide, as well as UV-C / Germicidal lamps and tubes, Tubular Induction lamps (circular, square, U etc.), UHP replacement lamps (projector etc.), Neon replacement lamps, etc.</t>
   </si>
   <si>
     <t>product_image</t>
@@ -71,9 +68,6 @@
     <t>Fluorescent tubes measuring greater than 4 ft</t>
   </si>
   <si>
-    <t>Compact Fluorescent Lights (CFL)/ Screw-In Induction Lamps</t>
-  </si>
-  <si>
     <t>product_description</t>
   </si>
   <si>
@@ -83,30 +77,10 @@
     <t>Light Emitting Diodes</t>
   </si>
   <si>
-    <t>Solid-state lamps used for specialty purposes
-and conventional lighting applications.</t>
-  </si>
-  <si>
-    <t>High Intensity Discharge (HID), Special Purpose and Other</t>
-  </si>
-  <si>
     <t>Incandescent / Halogen</t>
   </si>
   <si>
-    <t>Filament lamps of all shapes, sizes and wattages
-(unless captured under Category 8)</t>
-  </si>
-  <si>
     <t>Miniature Bulb Package</t>
-  </si>
-  <si>
-    <t>Miniature bulbs are small, or very small bulbs. They can be LED, incandescent, halogen or neon and are typically designed and sold as replacement bulbs for applications such as: portable lighting (i.e., handheld flashlights), indicating, signaling, signage, emergency, electronic displays, automotive and transportation and decorative light strings/tape/ribbon/rope.
-Miniature bulbs are often sold in packages of two or more. Fees will be assessed on a per-package basis and NOT on a per-unit basis (as with all other lamp categories). Note: If
-miniature bulbs that meet this definition are sold individually and not in a package of two or more, the bulbs can be reported and assessed fees as if in packages in multiples of
-10. For example, if in a reporting period, 41 single bulbs that meet this definition were sold individually, they would be reported as five “packages of 10” and assessed five fees.</t>
-  </si>
-  <si>
-    <t>Designated Small Fixtures/ Decorative Light Strings</t>
   </si>
   <si>
     <t>Book Lights (including Kindle Lights)</t>
@@ -133,28 +107,8 @@
     <t>Night Lights</t>
   </si>
   <si>
-    <t>Single Remote Head for Track/Egress Lighting (including replacement heads)</t>
-  </si>
-  <si>
-    <t>Utility/Closet Lights (portable and battery powered only)</t>
-  </si>
-  <si>
-    <t>Floating/Submersible Lights for pools, ponds, bathtubs, etc. (portable and battery powered only)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puck/Disk Lights
-Compact lighting fixture used for cabinets or display lighting that contains the housing and lamp in a circular (round or oval) “puck” or “disk”. May be surface mounted or recessed. Limited to those under 4 inches in diameter and 2 inches in depth. </t>
-  </si>
-  <si>
-    <t>Path/Walkway/Garden/In-Grade/Border/Step Lights (solar powered only)</t>
-  </si>
-  <si>
     <t>Christmas Light Strings and Light Strings
 Products are reported and applied fees in increments of 100 lights. Products of 100 lights or less are applied for one recycling fee. Products with greater than 100 lights are charged one recycling fee per 100 light increments. For example, a light string of 460 lights would be reported as 5 units and assessed five fees.</t>
-  </si>
-  <si>
-    <t>Rope/Strip/Ribbon/Tape Lights
-Products are reported and applied fees in increments of   10 meters. Products of 10 meters or less are applied one recycling fee. Products greater than 10 meters are charged one recycling fee per 10-meter increment (i.e., 38 meters of rope lights would be reported as 4 units and assessed four fees). Members may choose to calculate a fee rate/ unit sold to apply at point of sale and then bundle this into increments of 10 meters/$0.15 for reporting purposes.</t>
   </si>
   <si>
     <t>Stake Lights (set of connected units)</t>
@@ -181,9 +135,6 @@
     <t>Fixture Category A - Emergency / Egress Lights</t>
   </si>
   <si>
-    <t>Emergency/Egress Lights</t>
-  </si>
-  <si>
     <t>Fixture Category A - Small Outdoor Fixtures</t>
   </si>
   <si>
@@ -193,23 +144,11 @@
     <t>Post Lighting (consumer applications only)</t>
   </si>
   <si>
-    <t>Path, Walkway, Garden, In-Grade, Border, Step Lights (non-solar powered only)</t>
-  </si>
-  <si>
-    <t>Porch/Patio Lights</t>
-  </si>
-  <si>
     <t>Security Lighting (with or without integrated cameras)
 - Including residential-type security floodlights</t>
   </si>
   <si>
     <t>Pool and Fountain Fixtures</t>
-  </si>
-  <si>
-    <t>Wall Mount/Small Flood - including commercial “wall packs” and flood lights less than 250 W</t>
-  </si>
-  <si>
-    <t>Flush/Semi-Flush</t>
   </si>
   <si>
     <t>Fixture Category A - Decorative Fixtures</t>
@@ -219,9 +158,6 @@
   </si>
   <si>
     <t>Pendant</t>
-  </si>
-  <si>
-    <t>Recessed/Pot - Fee is only applied to the housing if housing and trims are sold separately.</t>
   </si>
   <si>
     <t>Fixed Track and Canopy</t>
@@ -242,9 +178,6 @@
     <t>Ceiling Fans with Lights</t>
   </si>
   <si>
-    <t>Fixture Category A - Linear Fixtures (including linear shop lights and linear pool/fountain fixtures)</t>
-  </si>
-  <si>
     <t>Strip Lights</t>
   </si>
   <si>
@@ -258,9 +191,6 @@
   </si>
   <si>
     <t>Fixture Category B - Non-Linear Fixtures (commercial and industrial)</t>
-  </si>
-  <si>
-    <t>High/Low Bay Lighting</t>
   </si>
   <si>
     <t>Parking Garage Fixtures (Ceiling and Wall Mount)</t>
@@ -278,24 +208,13 @@
     <t>Flood Lights and Sports Lights - (≥250 W) designed for use in sports fields, stadiums, arenas, tracks, courts, industrial yards, parking lots etc.</t>
   </si>
   <si>
-    <t>Lighting Ballasts/ Transformers (not integrated into lamps or fixtures)</t>
-  </si>
-  <si>
     <t>Ballasts, all types (i.e., compact fluorescent, electronic, HID, magnetic etc.)</t>
   </si>
   <si>
     <t>Manitoba</t>
   </si>
   <si>
-    <t>Compact Fluorescent Lights (CFL)/ Screw-
-In Induction Lamps</t>
-  </si>
-  <si>
     <t>Québec</t>
-  </si>
-  <si>
-    <t>Includes all HID technologies that contain mercury, such as High-Pressure Sodium (HPS), Mercury Vapor and Metal
-Halide, as well as UV-C / Germicidal lamps and tubes, Tubular Induction lamps (circular, square, U, etc.). UHP replacement lamps (projector etc.), neon replacement lamps, etc.</t>
   </si>
   <si>
     <t>Prince Edward Island</t>
@@ -304,44 +223,90 @@
     <t>Solid-state lamps used for specialty purposes and conventional lighting applications</t>
   </si>
   <si>
-    <t>Includes all HID technologies, such as High-Pressure Sodium (HPS), Low Pressure Sodium, Mercury Vapor and Metal Halide, Tubular Induction lamps (circular, square, U, etc.), UHP replacement lamps (projector etc.), neon replacement lamps, etc.</t>
-  </si>
-  <si>
     <t>Filament lamps of all shapes, sizes and wattages</t>
-  </si>
-  <si>
-    <t>Miniature bulbs are small, or very small bulbs. They can be LED, incandescent, halogen or neon and are typically designed and sold as replacement bulbs for applications such as: portable lighting (i.e., handheld flashlights), indicating, signaling, signage, emergency, electronic displays, automotive and transportation and decorative light strings/tape/ribbon/rope.</t>
   </si>
   <si>
     <t>Ontario</t>
   </si>
   <si>
-    <t>Includes all diameters and light outputs, shaped fluorescent tubes, and UV-A and UV-B tubes</t>
-  </si>
-  <si>
-    <t>Fluorescent tubes measuring greater than 2 ft and up to
-or equal to 4 ft</t>
-  </si>
-  <si>
     <t>Light Emitting Diodes (LED) - Bulbs</t>
-  </si>
-  <si>
-    <t>Solid-state bulbs that are typically similar in size and intended to replace CFLs or traditional incandescent/ halogen light bulbs, including pin-type or screw-in bulbs of various output wattages.</t>
-  </si>
-  <si>
-    <t>Light Emitting Diodes (LED) – Tubes and Other</t>
-  </si>
-  <si>
-    <t>Solid-state tubes of all lengths and shapes for all lighting applications, and other lamps/bulbs used for specialty purposes or industrial lighting applications (e.g. LED HID replacement lighting).</t>
   </si>
   <si>
     <t>High Intensity Discharge (HID), Germicidal, Special Purpose and Other</t>
   </si>
   <si>
-    <t>Includes all HID technologies, such as High-Pressure Sodium (HPS), Low Pressure Sodium (LPS), Mercury Vapor and Metal Halide, as well as UV-C / Germicidal lamps and tubes, Tubular Induction lamps (circular, square, U etc.), UHP replacement lamps (projector etc.), Neon replacement lamps, etc.</t>
+    <t>is_included</t>
   </si>
   <si>
-    <t>is_included</t>
+    <t>Light Emitting Diodes (LED) - Tubes and Other</t>
+  </si>
+  <si>
+    <t>Compact Fluorescent Lights (CFL) / Screw-In Induction Lamps</t>
+  </si>
+  <si>
+    <t>Designated Small Fixtures / Decorative Light Strings</t>
+  </si>
+  <si>
+    <t>Fixture Category A - Linear Fixtures (including linear shop lights and linear pool / fountain fixtures)</t>
+  </si>
+  <si>
+    <t>Lighting Ballasts / Transformers (not integrated into lamps or fixtures)</t>
+  </si>
+  <si>
+    <t>Emergency / Egress Lights</t>
+  </si>
+  <si>
+    <t>Floating / Submersible Lights for pools, ponds, bathtubs, etc. (portable and battery powered only)</t>
+  </si>
+  <si>
+    <t>Flush / Semi-Flush</t>
+  </si>
+  <si>
+    <t>High / Low Bay Lighting</t>
+  </si>
+  <si>
+    <t>Path / Walkway / Garden / In-Grade / Border / Step Lights (solar powered only)</t>
+  </si>
+  <si>
+    <t>Porch / Patio Lights</t>
+  </si>
+  <si>
+    <t>Recessed / Pot - Fee is only applied to the housing if housing and trims are sold separately.</t>
+  </si>
+  <si>
+    <t>Single Remote Head for Track / Egress Lighting (including replacement heads)</t>
+  </si>
+  <si>
+    <t>Solid-state bulbs that are typically similar in size and intended to replace CFLs or traditional incandescent / halogen light bulbs, including pin-type or screw-in bulbs of various output wattages.</t>
+  </si>
+  <si>
+    <t>Solid-state tubes of all lengths and shapes for all lighting applications, and other lamps / bulbs used for specialty purposes or industrial lighting applications (e.g. LED HID replacement lighting).</t>
+  </si>
+  <si>
+    <t>Utility / Closet Lights (portable and battery powered only)</t>
+  </si>
+  <si>
+    <t>Wall Mount / Small Flood - including commercial “wall packs” and flood lights less than 250 W</t>
+  </si>
+  <si>
+    <t>Miniature bulbs are small, or very small bulbs. They can be LED, incandescent, halogen or neon and are typically designed and sold as replacement bulbs for applications such as: portable lighting (i.e., handheld flashlights), indicating, signaling, signage, emergency, electronic displays, automotive and transportation and decorative light strings / tape / ribbon / rope.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puck / Disk Lights
+Compact lighting fixture used for cabinets or display lighting that contains the housing and lamp in a circular (round or oval) “puck” or “disk”. May be surface mounted or recessed. Limited to those under 4 inches in diameter and 2 inches in depth. </t>
+  </si>
+  <si>
+    <t>Rope / Strip / Ribbon / Tape Lights
+Products are reported and applied fees in increments of   10 meters. Products of 10 meters or less are applied one recycling fee. Products greater than 10 meters are charged one recycling fee per 10-meter increment (i.e., 38 meters of rope lights would be reported as 4 units and assessed four fees). Members may choose to calculate a fee rate / unit sold to apply at point of sale and then bundle this into increments of 10 meters / $0.15 for reporting purposes.</t>
+  </si>
+  <si>
+    <t>Path / Walkway / Garden / In-Grade / Border / Step Lights (non-solar powered only)</t>
+  </si>
+  <si>
+    <t>Solid-state lamps used for specialty purposes and conventional lighting applications.</t>
+  </si>
+  <si>
+    <t>Includes all HID technologies that contain mercury, such as High-Pressure Sodium (HPS), Low-Pressure Sodium (LPS), Mercury Vapor and Metal Halide, as well as UV-C / Germicidal lamps and tubes, Tubular Induction lamps (circular, square, U etc.), UHP replacement lamps (projector etc.), Neon replacement lamps, etc.</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1281,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>646430</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>466090</xdr:rowOff>
+      <xdr:rowOff>469265</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1402,7 +1367,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>199390</xdr:colOff>
+      <xdr:colOff>202565</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>647065</xdr:rowOff>
     </xdr:to>
@@ -1490,7 +1455,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>427990</xdr:colOff>
+      <xdr:colOff>431165</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>647065</xdr:rowOff>
     </xdr:to>
@@ -1534,7 +1499,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>389890</xdr:colOff>
+      <xdr:colOff>393065</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>627380</xdr:rowOff>
     </xdr:to>
@@ -1666,7 +1631,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:colOff>654050</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>626110</xdr:rowOff>
     </xdr:to>
@@ -1756,7 +1721,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>630555</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>619125</xdr:rowOff>
+      <xdr:rowOff>615950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1842,7 +1807,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>580390</xdr:colOff>
+      <xdr:colOff>583565</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>629920</xdr:rowOff>
     </xdr:to>
@@ -2106,9 +2071,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>387350</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>981075</xdr:rowOff>
+      <xdr:rowOff>977900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2194,9 +2159,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1113887</xdr:colOff>
+      <xdr:colOff>1117062</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>1190094</xdr:rowOff>
+      <xdr:rowOff>1193269</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2240,7 +2205,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1257409</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>809061</xdr:rowOff>
+      <xdr:rowOff>812236</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2458,7 +2423,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1190093</xdr:colOff>
+      <xdr:colOff>1193268</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>1028789</xdr:rowOff>
     </xdr:to>
@@ -2504,7 +2469,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1026812</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>580390</xdr:rowOff>
+      <xdr:rowOff>583565</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2590,7 +2555,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>961390</xdr:colOff>
+      <xdr:colOff>964565</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>706120</xdr:rowOff>
     </xdr:to>
@@ -2854,9 +2819,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
+      <xdr:colOff>825500</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>714375</xdr:rowOff>
+      <xdr:rowOff>711200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3250,7 +3215,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>923370</xdr:colOff>
+      <xdr:colOff>926545</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>990686</xdr:rowOff>
     </xdr:to>
@@ -3558,7 +3523,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1190093</xdr:colOff>
+      <xdr:colOff>1193268</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>933531</xdr:rowOff>
     </xdr:to>
@@ -3822,7 +3787,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>923370</xdr:colOff>
+      <xdr:colOff>926545</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>762066</xdr:rowOff>
     </xdr:to>
@@ -3956,7 +3921,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>821055</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>732790</xdr:rowOff>
+      <xdr:rowOff>735965</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4132,7 +4097,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1104996</xdr:colOff>
       <xdr:row>86</xdr:row>
-      <xdr:rowOff>1037680</xdr:rowOff>
+      <xdr:rowOff>1040855</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4350,7 +4315,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>999577</xdr:colOff>
+      <xdr:colOff>1002752</xdr:colOff>
       <xdr:row>91</xdr:row>
       <xdr:rowOff>990686</xdr:rowOff>
     </xdr:to>
@@ -4440,7 +4405,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1047840</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>961473</xdr:rowOff>
+      <xdr:rowOff>964648</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4526,7 +4491,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>961473</xdr:colOff>
+      <xdr:colOff>964648</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>933531</xdr:rowOff>
     </xdr:to>
@@ -4658,7 +4623,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1075783</xdr:colOff>
+      <xdr:colOff>1078958</xdr:colOff>
       <xdr:row>98</xdr:row>
       <xdr:rowOff>1009737</xdr:rowOff>
     </xdr:to>
@@ -4702,9 +4667,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1113886</xdr:colOff>
+      <xdr:colOff>1117061</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>1190093</xdr:rowOff>
+      <xdr:rowOff>1193268</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4880,7 +4845,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>857325</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>1037680</xdr:rowOff>
+      <xdr:rowOff>1040855</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4922,7 +4887,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>618543</xdr:colOff>
+      <xdr:colOff>621718</xdr:colOff>
       <xdr:row>104</xdr:row>
       <xdr:rowOff>1009737</xdr:rowOff>
     </xdr:to>
@@ -5010,7 +4975,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>770957</xdr:colOff>
+      <xdr:colOff>774132</xdr:colOff>
       <xdr:row>106</xdr:row>
       <xdr:rowOff>1104996</xdr:rowOff>
     </xdr:to>
@@ -5142,7 +5107,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>885267</xdr:colOff>
+      <xdr:colOff>888442</xdr:colOff>
       <xdr:row>109</xdr:row>
       <xdr:rowOff>1181202</xdr:rowOff>
     </xdr:to>
@@ -5406,7 +5371,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>885267</xdr:colOff>
+      <xdr:colOff>888442</xdr:colOff>
       <xdr:row>115</xdr:row>
       <xdr:rowOff>1200254</xdr:rowOff>
     </xdr:to>
@@ -5540,7 +5505,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1124048</xdr:colOff>
       <xdr:row>118</xdr:row>
-      <xdr:rowOff>809060</xdr:rowOff>
+      <xdr:rowOff>812235</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5628,7 +5593,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>857250</xdr:colOff>
       <xdr:row>122</xdr:row>
-      <xdr:rowOff>808990</xdr:rowOff>
+      <xdr:rowOff>812165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5716,7 +5681,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1009737</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>656647</xdr:rowOff>
+      <xdr:rowOff>659822</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5846,7 +5811,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>694750</xdr:colOff>
+      <xdr:colOff>697925</xdr:colOff>
       <xdr:row>125</xdr:row>
       <xdr:rowOff>1162150</xdr:rowOff>
     </xdr:to>
@@ -6154,9 +6119,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>923371</xdr:colOff>
+      <xdr:colOff>926546</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>923371</xdr:rowOff>
+      <xdr:rowOff>926546</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6198,9 +6163,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>999578</xdr:colOff>
+      <xdr:colOff>1002753</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>923371</xdr:rowOff>
+      <xdr:rowOff>926546</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6242,9 +6207,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>504234</xdr:colOff>
+      <xdr:colOff>507409</xdr:colOff>
       <xdr:row>134</xdr:row>
-      <xdr:rowOff>961474</xdr:rowOff>
+      <xdr:rowOff>964649</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6286,9 +6251,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>847164</xdr:colOff>
+      <xdr:colOff>850339</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>1151990</xdr:rowOff>
+      <xdr:rowOff>1155165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6332,7 +6297,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>781117</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>1037680</xdr:rowOff>
+      <xdr:rowOff>1040855</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6596,7 +6561,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>878840</xdr:colOff>
       <xdr:row>142</xdr:row>
-      <xdr:rowOff>770890</xdr:rowOff>
+      <xdr:rowOff>774065</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6640,7 +6605,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>511810</xdr:colOff>
       <xdr:row>143</xdr:row>
-      <xdr:rowOff>752475</xdr:rowOff>
+      <xdr:rowOff>749300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6726,7 +6691,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>945515</xdr:colOff>
+      <xdr:colOff>942340</xdr:colOff>
       <xdr:row>145</xdr:row>
       <xdr:rowOff>934085</xdr:rowOff>
     </xdr:to>
@@ -6816,7 +6781,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>147</xdr:row>
-      <xdr:rowOff>866775</xdr:rowOff>
+      <xdr:rowOff>863600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6860,7 +6825,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>837565</xdr:colOff>
       <xdr:row>148</xdr:row>
-      <xdr:rowOff>734695</xdr:rowOff>
+      <xdr:rowOff>731520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6904,7 +6869,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>744149</xdr:colOff>
       <xdr:row>149</xdr:row>
-      <xdr:rowOff>1212215</xdr:rowOff>
+      <xdr:rowOff>1209040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6948,7 +6913,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>931651</xdr:colOff>
       <xdr:row>150</xdr:row>
-      <xdr:rowOff>1228090</xdr:rowOff>
+      <xdr:rowOff>1231265</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6990,9 +6955,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>920797</xdr:colOff>
+      <xdr:colOff>923972</xdr:colOff>
       <xdr:row>151</xdr:row>
-      <xdr:rowOff>749339</xdr:rowOff>
+      <xdr:rowOff>752514</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7034,9 +6999,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>863644</xdr:colOff>
+      <xdr:colOff>866819</xdr:colOff>
       <xdr:row>152</xdr:row>
-      <xdr:rowOff>501676</xdr:rowOff>
+      <xdr:rowOff>504851</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7078,7 +7043,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>844593</xdr:colOff>
+      <xdr:colOff>847768</xdr:colOff>
       <xdr:row>153</xdr:row>
       <xdr:rowOff>914447</xdr:rowOff>
     </xdr:to>
@@ -7124,7 +7089,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>914447</xdr:colOff>
       <xdr:row>154</xdr:row>
-      <xdr:rowOff>806491</xdr:rowOff>
+      <xdr:rowOff>809666</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7168,7 +7133,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>857294</xdr:colOff>
       <xdr:row>155</xdr:row>
-      <xdr:rowOff>809666</xdr:rowOff>
+      <xdr:rowOff>806491</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7210,7 +7175,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>676310</xdr:colOff>
+      <xdr:colOff>673135</xdr:colOff>
       <xdr:row>156</xdr:row>
       <xdr:rowOff>762039</xdr:rowOff>
     </xdr:to>
@@ -7254,9 +7219,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>923972</xdr:colOff>
+      <xdr:colOff>920797</xdr:colOff>
       <xdr:row>157</xdr:row>
-      <xdr:rowOff>714412</xdr:rowOff>
+      <xdr:rowOff>711237</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7298,7 +7263,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>809666</xdr:colOff>
+      <xdr:colOff>806491</xdr:colOff>
       <xdr:row>158</xdr:row>
       <xdr:rowOff>685835</xdr:rowOff>
     </xdr:to>
@@ -7344,7 +7309,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>744855</xdr:colOff>
       <xdr:row>159</xdr:row>
-      <xdr:rowOff>393065</xdr:rowOff>
+      <xdr:rowOff>389890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7386,7 +7351,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>600106</xdr:colOff>
+      <xdr:colOff>596931</xdr:colOff>
       <xdr:row>160</xdr:row>
       <xdr:rowOff>1009702</xdr:rowOff>
     </xdr:to>
@@ -7432,7 +7397,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>704886</xdr:colOff>
       <xdr:row>161</xdr:row>
-      <xdr:rowOff>943023</xdr:rowOff>
+      <xdr:rowOff>939848</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7474,9 +7439,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>809666</xdr:colOff>
+      <xdr:colOff>806491</xdr:colOff>
       <xdr:row>162</xdr:row>
-      <xdr:rowOff>581055</xdr:rowOff>
+      <xdr:rowOff>577880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7518,9 +7483,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>847768</xdr:colOff>
+      <xdr:colOff>844593</xdr:colOff>
       <xdr:row>163</xdr:row>
-      <xdr:rowOff>600106</xdr:rowOff>
+      <xdr:rowOff>596931</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7562,7 +7527,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>847768</xdr:colOff>
+      <xdr:colOff>844593</xdr:colOff>
       <xdr:row>164</xdr:row>
       <xdr:rowOff>552478</xdr:rowOff>
     </xdr:to>
@@ -7650,9 +7615,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>904921</xdr:colOff>
+      <xdr:colOff>901746</xdr:colOff>
       <xdr:row>166</xdr:row>
-      <xdr:rowOff>638208</xdr:rowOff>
+      <xdr:rowOff>635033</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7738,9 +7703,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>866819</xdr:colOff>
+      <xdr:colOff>863644</xdr:colOff>
       <xdr:row>168</xdr:row>
-      <xdr:rowOff>352443</xdr:rowOff>
+      <xdr:rowOff>349268</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7782,9 +7747,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>828717</xdr:colOff>
+      <xdr:colOff>825542</xdr:colOff>
       <xdr:row>169</xdr:row>
-      <xdr:rowOff>752514</xdr:rowOff>
+      <xdr:rowOff>749339</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7828,7 +7793,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>819192</xdr:colOff>
       <xdr:row>170</xdr:row>
-      <xdr:rowOff>714412</xdr:rowOff>
+      <xdr:rowOff>711237</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7916,7 +7881,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>857294</xdr:colOff>
       <xdr:row>172</xdr:row>
-      <xdr:rowOff>809666</xdr:rowOff>
+      <xdr:rowOff>806491</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7958,9 +7923,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>923972</xdr:colOff>
+      <xdr:colOff>920797</xdr:colOff>
       <xdr:row>173</xdr:row>
-      <xdr:rowOff>676310</xdr:rowOff>
+      <xdr:rowOff>673135</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8002,9 +7967,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>847768</xdr:colOff>
+      <xdr:colOff>844593</xdr:colOff>
       <xdr:row>174</xdr:row>
-      <xdr:rowOff>1038278</xdr:rowOff>
+      <xdr:rowOff>1035103</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8046,9 +8011,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>657259</xdr:colOff>
+      <xdr:colOff>654084</xdr:colOff>
       <xdr:row>175</xdr:row>
-      <xdr:rowOff>943023</xdr:rowOff>
+      <xdr:rowOff>939848</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8090,7 +8055,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>809666</xdr:colOff>
+      <xdr:colOff>806491</xdr:colOff>
       <xdr:row>176</xdr:row>
       <xdr:rowOff>704886</xdr:rowOff>
     </xdr:to>
@@ -8134,9 +8099,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>866819</xdr:colOff>
+      <xdr:colOff>863644</xdr:colOff>
       <xdr:row>177</xdr:row>
-      <xdr:rowOff>562004</xdr:rowOff>
+      <xdr:rowOff>558829</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8178,9 +8143,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>806491</xdr:colOff>
+      <xdr:colOff>809666</xdr:colOff>
       <xdr:row>178</xdr:row>
-      <xdr:rowOff>1016052</xdr:rowOff>
+      <xdr:rowOff>1019227</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8222,9 +8187,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>825542</xdr:colOff>
+      <xdr:colOff>828717</xdr:colOff>
       <xdr:row>179</xdr:row>
-      <xdr:rowOff>977950</xdr:rowOff>
+      <xdr:rowOff>981125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8266,7 +8231,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>958899</xdr:colOff>
+      <xdr:colOff>962074</xdr:colOff>
       <xdr:row>180</xdr:row>
       <xdr:rowOff>990651</xdr:rowOff>
     </xdr:to>
@@ -8310,7 +8275,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>635033</xdr:colOff>
+      <xdr:colOff>638208</xdr:colOff>
       <xdr:row>181</xdr:row>
       <xdr:rowOff>723937</xdr:rowOff>
     </xdr:to>
@@ -8356,7 +8321,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>877570</xdr:colOff>
       <xdr:row>182</xdr:row>
-      <xdr:rowOff>466090</xdr:rowOff>
+      <xdr:rowOff>469265</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8400,7 +8365,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>855345</xdr:colOff>
       <xdr:row>183</xdr:row>
-      <xdr:rowOff>393065</xdr:rowOff>
+      <xdr:rowOff>389890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8444,7 +8409,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>723937</xdr:colOff>
       <xdr:row>184</xdr:row>
-      <xdr:rowOff>676310</xdr:rowOff>
+      <xdr:rowOff>673135</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8532,7 +8497,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>682625</xdr:colOff>
       <xdr:row>186</xdr:row>
-      <xdr:rowOff>410845</xdr:rowOff>
+      <xdr:rowOff>407670</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8574,9 +8539,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>923972</xdr:colOff>
+      <xdr:colOff>920797</xdr:colOff>
       <xdr:row>187</xdr:row>
-      <xdr:rowOff>733463</xdr:rowOff>
+      <xdr:rowOff>730288</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8618,9 +8583,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>904921</xdr:colOff>
+      <xdr:colOff>901746</xdr:colOff>
       <xdr:row>188</xdr:row>
-      <xdr:rowOff>657259</xdr:rowOff>
+      <xdr:rowOff>654084</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8750,9 +8715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>825500</xdr:colOff>
+      <xdr:colOff>828675</xdr:colOff>
       <xdr:row>192</xdr:row>
-      <xdr:rowOff>393065</xdr:rowOff>
+      <xdr:rowOff>389890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8838,9 +8803,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>847768</xdr:colOff>
+      <xdr:colOff>844593</xdr:colOff>
       <xdr:row>194</xdr:row>
-      <xdr:rowOff>542953</xdr:rowOff>
+      <xdr:rowOff>539778</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8884,7 +8849,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>876935</xdr:colOff>
       <xdr:row>195</xdr:row>
-      <xdr:rowOff>484505</xdr:rowOff>
+      <xdr:rowOff>487680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8928,7 +8893,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>876935</xdr:colOff>
       <xdr:row>196</xdr:row>
-      <xdr:rowOff>240030</xdr:rowOff>
+      <xdr:rowOff>236855</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8972,7 +8937,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>878840</xdr:colOff>
       <xdr:row>197</xdr:row>
-      <xdr:rowOff>466090</xdr:rowOff>
+      <xdr:rowOff>469265</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9014,7 +8979,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>618490</xdr:colOff>
+      <xdr:colOff>621665</xdr:colOff>
       <xdr:row>198</xdr:row>
       <xdr:rowOff>535940</xdr:rowOff>
     </xdr:to>
@@ -9058,7 +9023,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>771564</xdr:colOff>
+      <xdr:colOff>768389</xdr:colOff>
       <xdr:row>199</xdr:row>
       <xdr:rowOff>514376</xdr:rowOff>
     </xdr:to>
@@ -9102,7 +9067,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>657259</xdr:colOff>
+      <xdr:colOff>654084</xdr:colOff>
       <xdr:row>200</xdr:row>
       <xdr:rowOff>819192</xdr:rowOff>
     </xdr:to>
@@ -9146,9 +9111,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>866819</xdr:colOff>
+      <xdr:colOff>863644</xdr:colOff>
       <xdr:row>201</xdr:row>
-      <xdr:rowOff>390545</xdr:rowOff>
+      <xdr:rowOff>387370</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9192,7 +9157,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>535940</xdr:colOff>
       <xdr:row>202</xdr:row>
-      <xdr:rowOff>313690</xdr:rowOff>
+      <xdr:rowOff>316865</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9234,9 +9199,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>203</xdr:row>
-      <xdr:rowOff>368935</xdr:rowOff>
+      <xdr:rowOff>372110</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9278,9 +9243,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>810895</xdr:colOff>
+      <xdr:colOff>807720</xdr:colOff>
       <xdr:row>204</xdr:row>
-      <xdr:rowOff>694690</xdr:rowOff>
+      <xdr:rowOff>697865</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9322,7 +9287,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>810260</xdr:colOff>
+      <xdr:colOff>807085</xdr:colOff>
       <xdr:row>205</xdr:row>
       <xdr:rowOff>782955</xdr:rowOff>
     </xdr:to>
@@ -9366,9 +9331,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>654685</xdr:colOff>
+      <xdr:colOff>657860</xdr:colOff>
       <xdr:row>206</xdr:row>
-      <xdr:rowOff>734695</xdr:rowOff>
+      <xdr:rowOff>731520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9456,7 +9421,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>438785</xdr:colOff>
       <xdr:row>208</xdr:row>
-      <xdr:rowOff>542290</xdr:rowOff>
+      <xdr:rowOff>545465</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9500,7 +9465,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>589915</xdr:colOff>
       <xdr:row>209</xdr:row>
-      <xdr:rowOff>773430</xdr:rowOff>
+      <xdr:rowOff>770255</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9544,7 +9509,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>607695</xdr:colOff>
       <xdr:row>210</xdr:row>
-      <xdr:rowOff>694690</xdr:rowOff>
+      <xdr:rowOff>697865</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9588,7 +9553,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>702945</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>773430</xdr:rowOff>
+      <xdr:rowOff>770255</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9632,7 +9597,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>609631</xdr:colOff>
       <xdr:row>212</xdr:row>
-      <xdr:rowOff>752514</xdr:rowOff>
+      <xdr:rowOff>749339</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9674,9 +9639,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>695361</xdr:colOff>
+      <xdr:colOff>692186</xdr:colOff>
       <xdr:row>213</xdr:row>
-      <xdr:rowOff>752514</xdr:rowOff>
+      <xdr:rowOff>749339</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9718,9 +9683,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>657259</xdr:colOff>
+      <xdr:colOff>654084</xdr:colOff>
       <xdr:row>214</xdr:row>
-      <xdr:rowOff>790615</xdr:rowOff>
+      <xdr:rowOff>787440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9762,9 +9727,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>790615</xdr:colOff>
+      <xdr:colOff>787440</xdr:colOff>
       <xdr:row>215</xdr:row>
-      <xdr:rowOff>790615</xdr:rowOff>
+      <xdr:rowOff>787440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9850,9 +9815,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>640715</xdr:colOff>
+      <xdr:colOff>637540</xdr:colOff>
       <xdr:row>217</xdr:row>
-      <xdr:rowOff>640715</xdr:rowOff>
+      <xdr:rowOff>637540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9894,7 +9859,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>654685</xdr:colOff>
+      <xdr:colOff>657860</xdr:colOff>
       <xdr:row>218</xdr:row>
       <xdr:rowOff>530225</xdr:rowOff>
     </xdr:to>
@@ -9938,9 +9903,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>640715</xdr:colOff>
+      <xdr:colOff>637540</xdr:colOff>
       <xdr:row>219</xdr:row>
-      <xdr:rowOff>427355</xdr:rowOff>
+      <xdr:rowOff>430530</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9982,9 +9947,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>637540</xdr:colOff>
+      <xdr:colOff>640715</xdr:colOff>
       <xdr:row>220</xdr:row>
-      <xdr:rowOff>600075</xdr:rowOff>
+      <xdr:rowOff>596900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10070,9 +10035,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>222</xdr:row>
-      <xdr:rowOff>640715</xdr:rowOff>
+      <xdr:rowOff>637540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10472,7 +10437,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304165</xdr:colOff>
       <xdr:row>232</xdr:row>
-      <xdr:rowOff>638175</xdr:rowOff>
+      <xdr:rowOff>635000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10516,7 +10481,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>550545</xdr:colOff>
       <xdr:row>233</xdr:row>
-      <xdr:rowOff>559435</xdr:rowOff>
+      <xdr:rowOff>562610</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10558,9 +10523,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>636905</xdr:colOff>
+      <xdr:colOff>640080</xdr:colOff>
       <xdr:row>234</xdr:row>
-      <xdr:rowOff>502285</xdr:rowOff>
+      <xdr:rowOff>505460</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10602,9 +10567,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>335915</xdr:colOff>
+      <xdr:colOff>332740</xdr:colOff>
       <xdr:row>235</xdr:row>
-      <xdr:rowOff>640715</xdr:rowOff>
+      <xdr:rowOff>637540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10646,9 +10611,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
+      <xdr:colOff>635000</xdr:colOff>
       <xdr:row>236</xdr:row>
-      <xdr:rowOff>600075</xdr:rowOff>
+      <xdr:rowOff>596900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10734,9 +10699,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>238</xdr:row>
-      <xdr:rowOff>640715</xdr:rowOff>
+      <xdr:rowOff>637540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11136,7 +11101,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304165</xdr:colOff>
       <xdr:row>248</xdr:row>
-      <xdr:rowOff>638175</xdr:rowOff>
+      <xdr:rowOff>635000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11180,7 +11145,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>550545</xdr:colOff>
       <xdr:row>249</xdr:row>
-      <xdr:rowOff>560070</xdr:rowOff>
+      <xdr:rowOff>563245</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11222,9 +11187,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>636905</xdr:colOff>
+      <xdr:colOff>640080</xdr:colOff>
       <xdr:row>250</xdr:row>
-      <xdr:rowOff>502920</xdr:rowOff>
+      <xdr:rowOff>506095</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11266,9 +11231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>335915</xdr:colOff>
+      <xdr:colOff>332740</xdr:colOff>
       <xdr:row>251</xdr:row>
-      <xdr:rowOff>640715</xdr:rowOff>
+      <xdr:rowOff>637540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11312,7 +11277,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>646430</xdr:colOff>
       <xdr:row>252</xdr:row>
-      <xdr:rowOff>469265</xdr:rowOff>
+      <xdr:rowOff>466090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11354,9 +11319,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>615950</xdr:colOff>
+      <xdr:colOff>619125</xdr:colOff>
       <xdr:row>253</xdr:row>
-      <xdr:rowOff>636905</xdr:rowOff>
+      <xdr:rowOff>640080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11398,7 +11363,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>202565</xdr:colOff>
+      <xdr:colOff>199390</xdr:colOff>
       <xdr:row>254</xdr:row>
       <xdr:rowOff>647065</xdr:rowOff>
     </xdr:to>
@@ -11442,9 +11407,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>597535</xdr:colOff>
+      <xdr:colOff>600710</xdr:colOff>
       <xdr:row>255</xdr:row>
-      <xdr:rowOff>582295</xdr:rowOff>
+      <xdr:rowOff>579120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11486,9 +11451,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>256</xdr:row>
-      <xdr:rowOff>596900</xdr:rowOff>
+      <xdr:rowOff>600075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11574,9 +11539,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>596900</xdr:colOff>
       <xdr:row>258</xdr:row>
-      <xdr:rowOff>637540</xdr:rowOff>
+      <xdr:rowOff>640715</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11976,7 +11941,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304165</xdr:colOff>
       <xdr:row>268</xdr:row>
-      <xdr:rowOff>638175</xdr:rowOff>
+      <xdr:rowOff>635000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12020,7 +11985,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>550545</xdr:colOff>
       <xdr:row>269</xdr:row>
-      <xdr:rowOff>559435</xdr:rowOff>
+      <xdr:rowOff>562610</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12062,9 +12027,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>636905</xdr:colOff>
+      <xdr:colOff>640080</xdr:colOff>
       <xdr:row>270</xdr:row>
-      <xdr:rowOff>502285</xdr:rowOff>
+      <xdr:rowOff>505460</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12106,9 +12071,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>335915</xdr:colOff>
+      <xdr:colOff>332740</xdr:colOff>
       <xdr:row>271</xdr:row>
-      <xdr:rowOff>640715</xdr:rowOff>
+      <xdr:rowOff>637540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12150,9 +12115,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>635635</xdr:colOff>
+      <xdr:colOff>638810</xdr:colOff>
       <xdr:row>272</xdr:row>
-      <xdr:rowOff>410845</xdr:rowOff>
+      <xdr:rowOff>407670</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12194,7 +12159,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>578485</xdr:colOff>
+      <xdr:colOff>581660</xdr:colOff>
       <xdr:row>273</xdr:row>
       <xdr:rowOff>645795</xdr:rowOff>
     </xdr:to>
@@ -12238,9 +12203,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>636270</xdr:colOff>
+      <xdr:colOff>639445</xdr:colOff>
       <xdr:row>274</xdr:row>
-      <xdr:rowOff>559435</xdr:rowOff>
+      <xdr:rowOff>562610</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12372,7 +12337,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>646430</xdr:colOff>
       <xdr:row>277</xdr:row>
-      <xdr:rowOff>469265</xdr:rowOff>
+      <xdr:rowOff>466090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12414,9 +12379,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>597535</xdr:colOff>
+      <xdr:colOff>600710</xdr:colOff>
       <xdr:row>278</xdr:row>
-      <xdr:rowOff>635635</xdr:rowOff>
+      <xdr:rowOff>638810</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12458,9 +12423,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>636270</xdr:colOff>
+      <xdr:colOff>639445</xdr:colOff>
       <xdr:row>279</xdr:row>
-      <xdr:rowOff>639445</xdr:rowOff>
+      <xdr:rowOff>636270</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12502,9 +12467,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>389890</xdr:colOff>
+      <xdr:colOff>393065</xdr:colOff>
       <xdr:row>280</xdr:row>
-      <xdr:rowOff>636270</xdr:rowOff>
+      <xdr:rowOff>639445</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12546,7 +12511,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>330200</xdr:colOff>
       <xdr:row>281</xdr:row>
       <xdr:rowOff>589280</xdr:rowOff>
     </xdr:to>
@@ -12590,9 +12555,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>389890</xdr:colOff>
+      <xdr:colOff>393065</xdr:colOff>
       <xdr:row>282</xdr:row>
-      <xdr:rowOff>596900</xdr:rowOff>
+      <xdr:rowOff>600075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12678,7 +12643,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
+      <xdr:colOff>332105</xdr:colOff>
       <xdr:row>284</xdr:row>
       <xdr:rowOff>630555</xdr:rowOff>
     </xdr:to>
@@ -12722,7 +12687,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:colOff>654050</xdr:colOff>
       <xdr:row>285</xdr:row>
       <xdr:rowOff>626110</xdr:rowOff>
     </xdr:to>
@@ -12766,9 +12731,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>407670</xdr:colOff>
+      <xdr:colOff>410845</xdr:colOff>
       <xdr:row>286</xdr:row>
-      <xdr:rowOff>639445</xdr:rowOff>
+      <xdr:rowOff>636270</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12810,9 +12775,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
+      <xdr:colOff>636905</xdr:colOff>
       <xdr:row>287</xdr:row>
-      <xdr:rowOff>619125</xdr:rowOff>
+      <xdr:rowOff>615950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12856,7 +12821,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>644525</xdr:colOff>
       <xdr:row>288</xdr:row>
-      <xdr:rowOff>582295</xdr:rowOff>
+      <xdr:rowOff>579120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12898,7 +12863,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>580390</xdr:colOff>
+      <xdr:colOff>583565</xdr:colOff>
       <xdr:row>289</xdr:row>
       <xdr:rowOff>629920</xdr:rowOff>
     </xdr:to>
@@ -12944,7 +12909,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>568960</xdr:colOff>
       <xdr:row>290</xdr:row>
-      <xdr:rowOff>544830</xdr:rowOff>
+      <xdr:rowOff>541655</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12986,9 +12951,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>559435</xdr:colOff>
+      <xdr:colOff>562610</xdr:colOff>
       <xdr:row>291</xdr:row>
-      <xdr:rowOff>619760</xdr:rowOff>
+      <xdr:rowOff>616585</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13030,9 +12995,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
+      <xdr:colOff>635000</xdr:colOff>
       <xdr:row>292</xdr:row>
-      <xdr:rowOff>600075</xdr:rowOff>
+      <xdr:rowOff>596900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13074,9 +13039,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>639445</xdr:colOff>
+      <xdr:colOff>636270</xdr:colOff>
       <xdr:row>293</xdr:row>
-      <xdr:rowOff>639445</xdr:rowOff>
+      <xdr:rowOff>636270</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13520,7 +13485,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>304165</xdr:colOff>
       <xdr:row>304</xdr:row>
-      <xdr:rowOff>638175</xdr:rowOff>
+      <xdr:rowOff>635000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13564,7 +13529,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>550545</xdr:colOff>
       <xdr:row>305</xdr:row>
-      <xdr:rowOff>560070</xdr:rowOff>
+      <xdr:rowOff>563245</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13606,9 +13571,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>636905</xdr:colOff>
+      <xdr:colOff>640080</xdr:colOff>
       <xdr:row>306</xdr:row>
-      <xdr:rowOff>502920</xdr:rowOff>
+      <xdr:rowOff>506095</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13650,9 +13615,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>335915</xdr:colOff>
+      <xdr:colOff>332740</xdr:colOff>
       <xdr:row>307</xdr:row>
-      <xdr:rowOff>640715</xdr:rowOff>
+      <xdr:rowOff>637540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13694,9 +13659,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>466090</xdr:colOff>
+      <xdr:colOff>469265</xdr:colOff>
       <xdr:row>308</xdr:row>
-      <xdr:rowOff>621665</xdr:rowOff>
+      <xdr:rowOff>618490</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13740,7 +13705,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>628015</xdr:colOff>
       <xdr:row>309</xdr:row>
-      <xdr:rowOff>408305</xdr:rowOff>
+      <xdr:rowOff>411480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13782,9 +13747,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>583565</xdr:colOff>
+      <xdr:colOff>580390</xdr:colOff>
       <xdr:row>310</xdr:row>
-      <xdr:rowOff>522605</xdr:rowOff>
+      <xdr:rowOff>525780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13826,9 +13791,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>542290</xdr:colOff>
+      <xdr:colOff>545465</xdr:colOff>
       <xdr:row>311</xdr:row>
-      <xdr:rowOff>601980</xdr:rowOff>
+      <xdr:rowOff>598805</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13870,9 +13835,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>503555</xdr:colOff>
+      <xdr:colOff>506730</xdr:colOff>
       <xdr:row>312</xdr:row>
-      <xdr:rowOff>654685</xdr:rowOff>
+      <xdr:rowOff>657860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13916,7 +13881,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>231140</xdr:colOff>
       <xdr:row>313</xdr:row>
-      <xdr:rowOff>697865</xdr:rowOff>
+      <xdr:rowOff>694690</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13958,9 +13923,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
+      <xdr:colOff>582295</xdr:colOff>
       <xdr:row>314</xdr:row>
-      <xdr:rowOff>579755</xdr:rowOff>
+      <xdr:rowOff>582930</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14004,7 +13969,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>97790</xdr:colOff>
       <xdr:row>315</xdr:row>
-      <xdr:rowOff>580390</xdr:rowOff>
+      <xdr:rowOff>583565</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14046,9 +14011,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>258445</xdr:colOff>
+      <xdr:colOff>255270</xdr:colOff>
       <xdr:row>316</xdr:row>
-      <xdr:rowOff>602615</xdr:rowOff>
+      <xdr:rowOff>599440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14090,7 +14055,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>351155</xdr:colOff>
+      <xdr:colOff>354330</xdr:colOff>
       <xdr:row>317</xdr:row>
       <xdr:rowOff>588010</xdr:rowOff>
     </xdr:to>
@@ -14180,7 +14145,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>646430</xdr:colOff>
       <xdr:row>319</xdr:row>
-      <xdr:rowOff>469265</xdr:rowOff>
+      <xdr:rowOff>466090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14222,7 +14187,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>202565</xdr:colOff>
+      <xdr:colOff>199390</xdr:colOff>
       <xdr:row>320</xdr:row>
       <xdr:rowOff>647065</xdr:rowOff>
     </xdr:to>
@@ -14266,9 +14231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
+      <xdr:colOff>752475</xdr:colOff>
       <xdr:row>321</xdr:row>
-      <xdr:rowOff>544830</xdr:rowOff>
+      <xdr:rowOff>541655</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14310,9 +14275,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>389890</xdr:colOff>
+      <xdr:colOff>393065</xdr:colOff>
       <xdr:row>322</xdr:row>
-      <xdr:rowOff>636270</xdr:rowOff>
+      <xdr:rowOff>639445</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14354,7 +14319,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>351155</xdr:colOff>
+      <xdr:colOff>354330</xdr:colOff>
       <xdr:row>323</xdr:row>
       <xdr:rowOff>644525</xdr:rowOff>
     </xdr:to>
@@ -14398,7 +14363,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>389890</xdr:colOff>
+      <xdr:colOff>393065</xdr:colOff>
       <xdr:row>324</xdr:row>
       <xdr:rowOff>592455</xdr:rowOff>
     </xdr:to>
@@ -14486,9 +14451,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>236855</xdr:colOff>
+      <xdr:colOff>240030</xdr:colOff>
       <xdr:row>326</xdr:row>
-      <xdr:rowOff>639445</xdr:rowOff>
+      <xdr:rowOff>636270</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14532,7 +14497,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>269240</xdr:colOff>
       <xdr:row>327</xdr:row>
-      <xdr:rowOff>506730</xdr:rowOff>
+      <xdr:rowOff>503555</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14576,7 +14541,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>531495</xdr:colOff>
       <xdr:row>330</xdr:row>
-      <xdr:rowOff>502285</xdr:rowOff>
+      <xdr:rowOff>505460</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14618,9 +14583,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>465455</xdr:colOff>
+      <xdr:colOff>468630</xdr:colOff>
       <xdr:row>333</xdr:row>
-      <xdr:rowOff>506730</xdr:rowOff>
+      <xdr:rowOff>503555</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14662,9 +14627,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>560705</xdr:colOff>
+      <xdr:colOff>563880</xdr:colOff>
       <xdr:row>334</xdr:row>
-      <xdr:rowOff>506730</xdr:rowOff>
+      <xdr:rowOff>503555</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14706,7 +14671,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>635033</xdr:colOff>
+      <xdr:colOff>638208</xdr:colOff>
       <xdr:row>328</xdr:row>
       <xdr:rowOff>457223</xdr:rowOff>
     </xdr:to>
@@ -14750,7 +14715,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>292115</xdr:colOff>
+      <xdr:colOff>295290</xdr:colOff>
       <xdr:row>329</xdr:row>
       <xdr:rowOff>514376</xdr:rowOff>
     </xdr:to>
@@ -14794,9 +14759,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>501676</xdr:colOff>
+      <xdr:colOff>504851</xdr:colOff>
       <xdr:row>331</xdr:row>
-      <xdr:rowOff>539778</xdr:rowOff>
+      <xdr:rowOff>542953</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14838,9 +14803,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>596931</xdr:colOff>
+      <xdr:colOff>600106</xdr:colOff>
       <xdr:row>332</xdr:row>
-      <xdr:rowOff>577880</xdr:rowOff>
+      <xdr:rowOff>581055</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15217,36 +15182,36 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="E1" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>0</v>
@@ -15260,13 +15225,13 @@
     </row>
     <row r="3" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>0</v>
@@ -15280,13 +15245,13 @@
     </row>
     <row r="4" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>0</v>
@@ -15300,13 +15265,13 @@
     </row>
     <row r="5" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>0</v>
@@ -15320,13 +15285,13 @@
     </row>
     <row r="6" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>0</v>
@@ -15340,13 +15305,13 @@
     </row>
     <row r="7" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>0</v>
@@ -15360,13 +15325,13 @@
     </row>
     <row r="8" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>0</v>
@@ -15380,13 +15345,13 @@
     </row>
     <row r="9" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>0</v>
@@ -15400,13 +15365,13 @@
     </row>
     <row r="10" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>0</v>
@@ -15420,13 +15385,13 @@
     </row>
     <row r="11" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>0</v>
@@ -15440,13 +15405,13 @@
     </row>
     <row r="12" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>0</v>
@@ -15460,13 +15425,13 @@
     </row>
     <row r="13" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>0</v>
@@ -15480,13 +15445,13 @@
     </row>
     <row r="14" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1">
         <v>4</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>1</v>
@@ -15500,13 +15465,13 @@
     </row>
     <row r="15" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1">
         <v>4</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>1</v>
@@ -15520,13 +15485,13 @@
     </row>
     <row r="16" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="1">
         <v>4</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>1</v>
@@ -15540,13 +15505,13 @@
     </row>
     <row r="17" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>1</v>
@@ -15560,16 +15525,16 @@
     </row>
     <row r="18" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="F18" s="1">
         <v>0.15</v>
@@ -15580,16 +15545,16 @@
     </row>
     <row r="19" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1">
         <v>5</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="F19" s="1">
         <v>0.15</v>
@@ -15600,16 +15565,16 @@
     </row>
     <row r="20" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="1">
         <v>5</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="F20" s="1">
         <v>0.15</v>
@@ -15620,16 +15585,16 @@
     </row>
     <row r="21" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1">
         <v>5</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="F21" s="1">
         <v>0.15</v>
@@ -15640,16 +15605,16 @@
     </row>
     <row r="22" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="1">
         <v>6</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="F22" s="1">
         <v>1.1000000000000001</v>
@@ -15660,16 +15625,16 @@
     </row>
     <row r="23" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="1">
         <v>6</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="F23" s="1">
         <v>1.1000000000000001</v>
@@ -15680,16 +15645,16 @@
     </row>
     <row r="24" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" s="1">
         <v>6</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="F24" s="1">
         <v>1.1000000000000001</v>
@@ -15700,16 +15665,16 @@
     </row>
     <row r="25" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" s="1">
         <v>6</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="F25" s="1">
         <v>1.1000000000000001</v>
@@ -15720,16 +15685,16 @@
     </row>
     <row r="26" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" s="1">
         <v>7</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="F26" s="1">
         <v>0.05</v>
@@ -15740,16 +15705,16 @@
     </row>
     <row r="27" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" s="1">
         <v>7</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="F27" s="1">
         <v>0.05</v>
@@ -15760,16 +15725,16 @@
     </row>
     <row r="28" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="1">
         <v>7</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="F28" s="1">
         <v>0.05</v>
@@ -15780,16 +15745,16 @@
     </row>
     <row r="29" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" s="1">
         <v>7</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="F29" s="1">
         <v>0.05</v>
@@ -15800,16 +15765,16 @@
     </row>
     <row r="30" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" s="1">
         <v>8</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="F30" s="1">
         <v>0.1</v>
@@ -15820,16 +15785,16 @@
     </row>
     <row r="31" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" s="1">
         <v>8</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="F31" s="1">
         <v>0.1</v>
@@ -15840,16 +15805,16 @@
     </row>
     <row r="32" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" s="1">
         <v>8</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="F32" s="1">
         <v>0.1</v>
@@ -15860,16 +15825,16 @@
     </row>
     <row r="33" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" s="1">
         <v>8</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="F33" s="1">
         <v>0.1</v>
@@ -15880,16 +15845,16 @@
     </row>
     <row r="34" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" s="1">
         <v>8</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="F34" s="1">
         <v>0.1</v>
@@ -15900,16 +15865,16 @@
     </row>
     <row r="35" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" s="1">
         <v>8</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="F35" s="1">
         <v>0.1</v>
@@ -15920,16 +15885,16 @@
     </row>
     <row r="36" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36" s="1">
         <v>8</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="F36" s="1">
         <v>0.1</v>
@@ -15940,16 +15905,16 @@
     </row>
     <row r="37" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" s="1">
         <v>8</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="F37" s="1">
         <v>0.1</v>
@@ -15960,16 +15925,16 @@
     </row>
     <row r="38" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" s="1">
         <v>9</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F38" s="1">
         <v>0.15</v>
@@ -15980,16 +15945,16 @@
     </row>
     <row r="39" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39" s="1">
         <v>9</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F39" s="1">
         <v>0.15</v>
@@ -16000,16 +15965,16 @@
     </row>
     <row r="40" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" s="1">
         <v>9</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F40" s="1">
         <v>0.15</v>
@@ -16020,16 +15985,16 @@
     </row>
     <row r="41" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" s="1">
         <v>9</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F41" s="1">
         <v>0.15</v>
@@ -16040,16 +16005,16 @@
     </row>
     <row r="42" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42" s="1">
         <v>9</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F42" s="1">
         <v>0.15</v>
@@ -16060,16 +16025,16 @@
     </row>
     <row r="43" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" s="1">
         <v>9</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F43" s="1">
         <v>0.15</v>
@@ -16080,16 +16045,16 @@
     </row>
     <row r="44" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44" s="1">
         <v>9</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F44" s="1">
         <v>0.15</v>
@@ -16100,16 +16065,16 @@
     </row>
     <row r="45" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45" s="1">
         <v>9</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F45" s="1">
         <v>0.15</v>
@@ -16120,16 +16085,16 @@
     </row>
     <row r="46" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46" s="1">
         <v>9</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F46" s="1">
         <v>0.15</v>
@@ -16140,16 +16105,16 @@
     </row>
     <row r="47" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47" s="1">
         <v>9</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F47" s="1">
         <v>0.15</v>
@@ -16160,16 +16125,16 @@
     </row>
     <row r="48" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" s="1">
         <v>9</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F48" s="1">
         <v>0.15</v>
@@ -16180,16 +16145,16 @@
     </row>
     <row r="49" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" s="1">
         <v>9</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F49" s="1">
         <v>0.15</v>
@@ -16200,16 +16165,16 @@
     </row>
     <row r="50" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50" s="1">
         <v>9</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F50" s="1">
         <v>0.15</v>
@@ -16220,16 +16185,16 @@
     </row>
     <row r="51" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51" s="1">
         <v>9</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F51" s="1">
         <v>0.15</v>
@@ -16240,16 +16205,16 @@
     </row>
     <row r="52" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C52" s="1">
         <v>9</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F52" s="1">
         <v>0.15</v>
@@ -16260,16 +16225,16 @@
     </row>
     <row r="53" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C53" s="1">
         <v>9</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F53" s="1">
         <v>0.15</v>
@@ -16280,16 +16245,16 @@
     </row>
     <row r="54" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C54" s="1">
         <v>9</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F54" s="1">
         <v>0.15</v>
@@ -16300,16 +16265,16 @@
     </row>
     <row r="55" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55" s="1">
         <v>9</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F55" s="1">
         <v>0.15</v>
@@ -16320,16 +16285,16 @@
     </row>
     <row r="56" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56" s="1">
         <v>9</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F56" s="1">
         <v>0.15</v>
@@ -16340,16 +16305,16 @@
     </row>
     <row r="57" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C57" s="1">
         <v>9</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F57" s="1">
         <v>0.15</v>
@@ -16360,16 +16325,16 @@
     </row>
     <row r="58" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58" s="1">
         <v>9</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F58" s="1">
         <v>0.15</v>
@@ -16380,16 +16345,16 @@
     </row>
     <row r="59" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C59" s="1">
         <v>9</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F59" s="1">
         <v>0.15</v>
@@ -16400,16 +16365,16 @@
     </row>
     <row r="60" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C60" s="1">
         <v>9</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F60" s="1">
         <v>0.15</v>
@@ -16420,16 +16385,16 @@
     </row>
     <row r="61" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61" s="1">
         <v>9</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F61" s="1">
         <v>0.15</v>
@@ -16440,16 +16405,16 @@
     </row>
     <row r="62" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C62" s="1">
         <v>9</v>
       </c>
       <c r="D62" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F62" s="1">
         <v>0.15</v>
@@ -16460,16 +16425,16 @@
     </row>
     <row r="63" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63" s="1">
         <v>9</v>
       </c>
       <c r="D63" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F63" s="1">
         <v>0.15</v>
@@ -16480,16 +16445,16 @@
     </row>
     <row r="64" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C64" s="1">
         <v>9</v>
       </c>
       <c r="D64" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F64" s="1">
         <v>0.15</v>
@@ -16500,16 +16465,16 @@
     </row>
     <row r="65" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65" s="1">
         <v>9</v>
       </c>
       <c r="D65" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E65" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="F65" s="1">
         <v>0.15</v>
@@ -16520,16 +16485,16 @@
     </row>
     <row r="66" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C66" s="1">
         <v>9</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F66" s="1">
         <v>0.15</v>
@@ -16540,16 +16505,16 @@
     </row>
     <row r="67" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67" s="1">
         <v>9</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F67" s="1">
         <v>0.15</v>
@@ -16560,16 +16525,16 @@
     </row>
     <row r="68" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68" s="1">
         <v>9</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F68" s="1">
         <v>0.15</v>
@@ -16580,16 +16545,16 @@
     </row>
     <row r="69" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C69" s="1">
         <v>9</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F69" s="1">
         <v>0.15</v>
@@ -16600,16 +16565,16 @@
     </row>
     <row r="70" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C70" s="1">
         <v>9</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="F70" s="1">
         <v>0.15</v>
@@ -16620,16 +16585,16 @@
     </row>
     <row r="71" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C71" s="1">
         <v>9</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="F71" s="1">
         <v>0.15</v>
@@ -16640,16 +16605,16 @@
     </row>
     <row r="72" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C72" s="1">
         <v>9</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="F72" s="1">
         <v>0.15</v>
@@ -16660,16 +16625,16 @@
     </row>
     <row r="73" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C73" s="1">
         <v>9</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="F73" s="1">
         <v>0.15</v>
@@ -16680,16 +16645,16 @@
     </row>
     <row r="74" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C74" s="1">
         <v>9</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="F74" s="1">
         <v>0.15</v>
@@ -16700,16 +16665,16 @@
     </row>
     <row r="75" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C75" s="1">
         <v>9</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="F75" s="1">
         <v>0.15</v>
@@ -16720,16 +16685,16 @@
     </row>
     <row r="76" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C76" s="1">
         <v>9</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="F76" s="1">
         <v>0.15</v>
@@ -16740,16 +16705,16 @@
     </row>
     <row r="77" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C77" s="1">
         <v>9</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="F77" s="1">
         <v>0.15</v>
@@ -16760,16 +16725,16 @@
     </row>
     <row r="78" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C78" s="1">
         <v>9</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F78" s="1">
         <v>0.15</v>
@@ -16780,16 +16745,16 @@
     </row>
     <row r="79" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C79" s="1">
         <v>9</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F79" s="1">
         <v>0.15</v>
@@ -16800,16 +16765,16 @@
     </row>
     <row r="80" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80" s="1">
         <v>9</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F80" s="1">
         <v>0.15</v>
@@ -16820,16 +16785,16 @@
     </row>
     <row r="81" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C81" s="1">
         <v>9</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F81" s="1">
         <v>0.15</v>
@@ -16840,16 +16805,16 @@
     </row>
     <row r="82" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C82" s="1">
         <v>9</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="F82" s="1">
         <v>0.15</v>
@@ -16860,16 +16825,16 @@
     </row>
     <row r="83" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C83" s="1">
         <v>9</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="F83" s="1">
         <v>0.15</v>
@@ -16880,16 +16845,16 @@
     </row>
     <row r="84" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C84" s="1">
         <v>9</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="F84" s="1">
         <v>0.15</v>
@@ -16900,16 +16865,16 @@
     </row>
     <row r="85" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C85" s="1">
         <v>9</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="F85" s="1">
         <v>0.15</v>
@@ -16920,16 +16885,16 @@
     </row>
     <row r="86" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C86" s="1">
         <v>9</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="F86" s="1">
         <v>0.15</v>
@@ -16940,16 +16905,16 @@
     </row>
     <row r="87" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C87" s="1">
         <v>9</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="F87" s="1">
         <v>0.15</v>
@@ -16960,16 +16925,16 @@
     </row>
     <row r="88" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C88" s="1">
         <v>9</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="F88" s="1">
         <v>0.15</v>
@@ -16980,16 +16945,16 @@
     </row>
     <row r="89" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C89" s="1">
         <v>9</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="F89" s="1">
         <v>0.15</v>
@@ -17000,16 +16965,16 @@
     </row>
     <row r="90" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C90" s="1">
         <v>9</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F90" s="1">
         <v>0.15</v>
@@ -17020,16 +16985,16 @@
     </row>
     <row r="91" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C91" s="1">
         <v>9</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F91" s="1">
         <v>0.15</v>
@@ -17040,16 +17005,16 @@
     </row>
     <row r="92" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C92" s="1">
         <v>9</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F92" s="1">
         <v>0.15</v>
@@ -17060,16 +17025,16 @@
     </row>
     <row r="93" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C93" s="1">
         <v>9</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F93" s="1">
         <v>0.15</v>
@@ -17080,16 +17045,16 @@
     </row>
     <row r="94" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C94" s="1">
         <v>9</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F94" s="1">
         <v>0.15</v>
@@ -17100,16 +17065,16 @@
     </row>
     <row r="95" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C95" s="1">
         <v>9</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F95" s="1">
         <v>0.15</v>
@@ -17120,16 +17085,16 @@
     </row>
     <row r="96" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C96" s="1">
         <v>9</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="F96" s="1">
         <v>0.15</v>
@@ -17140,16 +17105,16 @@
     </row>
     <row r="97" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C97" s="1">
         <v>9</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F97" s="1">
         <v>0.15</v>
@@ -17160,16 +17125,16 @@
     </row>
     <row r="98" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C98" s="1">
         <v>9</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F98" s="1">
         <v>0.15</v>
@@ -17180,16 +17145,16 @@
     </row>
     <row r="99" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C99" s="1">
         <v>9</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F99" s="1">
         <v>0.15</v>
@@ -17200,16 +17165,16 @@
     </row>
     <row r="100" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C100" s="1">
         <v>9</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F100" s="1">
         <v>0.15</v>
@@ -17220,16 +17185,16 @@
     </row>
     <row r="101" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C101" s="1">
         <v>10</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F101" s="1">
         <v>0.15</v>
@@ -17240,16 +17205,16 @@
     </row>
     <row r="102" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C102" s="1">
         <v>10</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F102" s="1">
         <v>0.15</v>
@@ -17260,16 +17225,16 @@
     </row>
     <row r="103" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C103" s="1">
         <v>10</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F103" s="1">
         <v>0.15</v>
@@ -17280,16 +17245,16 @@
     </row>
     <row r="104" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C104" s="1">
         <v>10</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F104" s="1">
         <v>0.15</v>
@@ -17300,16 +17265,16 @@
     </row>
     <row r="105" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C105" s="1">
         <v>10</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F105" s="1">
         <v>0.15</v>
@@ -17320,16 +17285,16 @@
     </row>
     <row r="106" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C106" s="1">
         <v>10</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F106" s="1">
         <v>0.15</v>
@@ -17340,16 +17305,16 @@
     </row>
     <row r="107" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C107" s="1">
         <v>10</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F107" s="1">
         <v>0.15</v>
@@ -17360,16 +17325,16 @@
     </row>
     <row r="108" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C108" s="1">
         <v>10</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F108" s="1">
         <v>0.15</v>
@@ -17380,16 +17345,16 @@
     </row>
     <row r="109" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C109" s="1">
         <v>10</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F109" s="1">
         <v>0.15</v>
@@ -17400,16 +17365,16 @@
     </row>
     <row r="110" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C110" s="1">
         <v>10</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F110" s="1">
         <v>0.15</v>
@@ -17420,16 +17385,16 @@
     </row>
     <row r="111" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C111" s="1">
         <v>10</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F111" s="1">
         <v>0.15</v>
@@ -17440,16 +17405,16 @@
     </row>
     <row r="112" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C112" s="1">
         <v>10</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F112" s="1">
         <v>0.15</v>
@@ -17460,16 +17425,16 @@
     </row>
     <row r="113" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C113" s="1">
         <v>10</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F113" s="1">
         <v>0.15</v>
@@ -17480,16 +17445,16 @@
     </row>
     <row r="114" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C114" s="1">
         <v>10</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F114" s="1">
         <v>0.15</v>
@@ -17500,16 +17465,16 @@
     </row>
     <row r="115" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C115" s="1">
         <v>10</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F115" s="1">
         <v>0.15</v>
@@ -17520,16 +17485,16 @@
     </row>
     <row r="116" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C116" s="1">
         <v>10</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F116" s="1">
         <v>0.15</v>
@@ -17540,16 +17505,16 @@
     </row>
     <row r="117" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C117" s="1">
         <v>10</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F117" s="1">
         <v>0.15</v>
@@ -17560,16 +17525,16 @@
     </row>
     <row r="118" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C118" s="1">
         <v>10</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F118" s="1">
         <v>0.15</v>
@@ -17580,16 +17545,16 @@
     </row>
     <row r="119" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C119" s="1">
         <v>10</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F119" s="1">
         <v>0.15</v>
@@ -17600,16 +17565,16 @@
     </row>
     <row r="120" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C120" s="1">
         <v>10</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="F120" s="1">
         <v>0.15</v>
@@ -17620,16 +17585,16 @@
     </row>
     <row r="121" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C121" s="1">
         <v>10</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="F121" s="1">
         <v>0.15</v>
@@ -17640,16 +17605,16 @@
     </row>
     <row r="122" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C122" s="1">
         <v>10</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="F122" s="1">
         <v>0.15</v>
@@ -17660,16 +17625,16 @@
     </row>
     <row r="123" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C123" s="1">
         <v>10</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="F123" s="1">
         <v>0.15</v>
@@ -17680,16 +17645,16 @@
     </row>
     <row r="124" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C124" s="1">
         <v>10</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F124" s="1">
         <v>0.15</v>
@@ -17700,16 +17665,16 @@
     </row>
     <row r="125" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C125" s="1">
         <v>10</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F125" s="1">
         <v>0.15</v>
@@ -17720,16 +17685,16 @@
     </row>
     <row r="126" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C126" s="1">
         <v>10</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F126" s="1">
         <v>0.15</v>
@@ -17740,16 +17705,16 @@
     </row>
     <row r="127" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C127" s="1">
         <v>10</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F127" s="1">
         <v>0.15</v>
@@ -17760,16 +17725,16 @@
     </row>
     <row r="128" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C128" s="1">
         <v>10</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F128" s="1">
         <v>0.15</v>
@@ -17780,16 +17745,16 @@
     </row>
     <row r="129" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C129" s="1">
         <v>10</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F129" s="1">
         <v>0.15</v>
@@ -17800,16 +17765,16 @@
     </row>
     <row r="130" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C130" s="1">
         <v>10</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F130" s="1">
         <v>0.15</v>
@@ -17820,16 +17785,16 @@
     </row>
     <row r="131" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C131" s="1">
         <v>10</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F131" s="1">
         <v>0.15</v>
@@ -17840,16 +17805,16 @@
     </row>
     <row r="132" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C132" s="1">
         <v>10</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="F132" s="1">
         <v>0.15</v>
@@ -17860,16 +17825,16 @@
     </row>
     <row r="133" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C133" s="1">
         <v>10</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="F133" s="1">
         <v>0.15</v>
@@ -17880,16 +17845,16 @@
     </row>
     <row r="134" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C134" s="1">
         <v>10</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="F134" s="1">
         <v>0.15</v>
@@ -17900,16 +17865,16 @@
     </row>
     <row r="135" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C135" s="1">
         <v>10</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="F135" s="1">
         <v>0.15</v>
@@ -17920,16 +17885,16 @@
     </row>
     <row r="136" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C136" s="1">
         <v>10</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="F136" s="1">
         <v>0.15</v>
@@ -17940,16 +17905,16 @@
     </row>
     <row r="137" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C137" s="1">
         <v>10</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="F137" s="1">
         <v>0.15</v>
@@ -17960,16 +17925,16 @@
     </row>
     <row r="138" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C138" s="1">
         <v>10</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="F138" s="1">
         <v>0.15</v>
@@ -17980,16 +17945,16 @@
     </row>
     <row r="139" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C139" s="1">
         <v>10</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="F139" s="1">
         <v>0.15</v>
@@ -18000,16 +17965,16 @@
     </row>
     <row r="140" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C140" s="1">
         <v>10</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F140" s="1">
         <v>0.15</v>
@@ -18020,16 +17985,16 @@
     </row>
     <row r="141" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C141" s="1">
         <v>10</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F141" s="1">
         <v>0.15</v>
@@ -18040,16 +18005,16 @@
     </row>
     <row r="142" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C142" s="1">
         <v>10</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F142" s="1">
         <v>0.15</v>
@@ -18060,16 +18025,16 @@
     </row>
     <row r="143" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C143" s="1">
         <v>10</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F143" s="1">
         <v>0.15</v>
@@ -18080,16 +18045,16 @@
     </row>
     <row r="144" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C144" s="1">
         <v>10</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F144" s="1">
         <v>0.15</v>
@@ -18100,16 +18065,16 @@
     </row>
     <row r="145" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C145" s="1">
         <v>10</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F145" s="1">
         <v>0.15</v>
@@ -18120,16 +18085,16 @@
     </row>
     <row r="146" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C146" s="1">
         <v>10</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F146" s="1">
         <v>0.15</v>
@@ -18140,16 +18105,16 @@
     </row>
     <row r="147" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C147" s="1">
         <v>10</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F147" s="1">
         <v>0.15</v>
@@ -18160,16 +18125,16 @@
     </row>
     <row r="148" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C148" s="1">
         <v>10</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="F148" s="1">
         <v>0.15</v>
@@ -18180,16 +18145,16 @@
     </row>
     <row r="149" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C149" s="1">
         <v>10</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="F149" s="1">
         <v>0.15</v>
@@ -18200,16 +18165,16 @@
     </row>
     <row r="150" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C150" s="1">
         <v>10</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="F150" s="1">
         <v>0.15</v>
@@ -18220,16 +18185,16 @@
     </row>
     <row r="151" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C151" s="1">
         <v>10</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="F151" s="1">
         <v>0.15</v>
@@ -18240,16 +18205,16 @@
     </row>
     <row r="152" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C152" s="1">
         <v>10</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F152" s="1">
         <v>0.15</v>
@@ -18260,16 +18225,16 @@
     </row>
     <row r="153" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C153" s="1">
         <v>10</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F153" s="1">
         <v>0.15</v>
@@ -18280,16 +18245,16 @@
     </row>
     <row r="154" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C154" s="1">
         <v>10</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F154" s="1">
         <v>0.15</v>
@@ -18300,16 +18265,16 @@
     </row>
     <row r="155" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C155" s="1">
         <v>10</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F155" s="1">
         <v>0.15</v>
@@ -18320,16 +18285,16 @@
     </row>
     <row r="156" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C156" s="1">
         <v>10</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F156" s="1">
         <v>0.15</v>
@@ -18340,16 +18305,16 @@
     </row>
     <row r="157" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C157" s="1">
         <v>10</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F157" s="1">
         <v>0.15</v>
@@ -18360,16 +18325,16 @@
     </row>
     <row r="158" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C158" s="1">
         <v>10</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F158" s="1">
         <v>0.15</v>
@@ -18380,16 +18345,16 @@
     </row>
     <row r="159" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C159" s="1">
         <v>10</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F159" s="1">
         <v>0.15</v>
@@ -18400,16 +18365,16 @@
     </row>
     <row r="160" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C160" s="1">
         <v>10</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F160" s="1">
         <v>0.15</v>
@@ -18420,16 +18385,16 @@
     </row>
     <row r="161" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C161" s="1">
         <v>10</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F161" s="1">
         <v>0.15</v>
@@ -18440,16 +18405,16 @@
     </row>
     <row r="162" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C162" s="1">
         <v>10</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F162" s="1">
         <v>0.15</v>
@@ -18460,16 +18425,16 @@
     </row>
     <row r="163" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C163" s="1">
         <v>10</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F163" s="1">
         <v>0.15</v>
@@ -18480,16 +18445,16 @@
     </row>
     <row r="164" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C164" s="1">
         <v>10</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="F164" s="1">
         <v>0.15</v>
@@ -18500,16 +18465,16 @@
     </row>
     <row r="165" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C165" s="1">
         <v>10</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="F165" s="1">
         <v>0.15</v>
@@ -18520,16 +18485,16 @@
     </row>
     <row r="166" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C166" s="1">
         <v>10</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="F166" s="1">
         <v>0.15</v>
@@ -18540,16 +18505,16 @@
     </row>
     <row r="167" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C167" s="1">
         <v>10</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="F167" s="1">
         <v>0.15</v>
@@ -18560,16 +18525,16 @@
     </row>
     <row r="168" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C168" s="1">
         <v>10</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F168" s="1">
         <v>0.15</v>
@@ -18580,16 +18545,16 @@
     </row>
     <row r="169" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C169" s="1">
         <v>10</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F169" s="1">
         <v>0.15</v>
@@ -18600,16 +18565,16 @@
     </row>
     <row r="170" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C170" s="1">
         <v>10</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F170" s="1">
         <v>0.15</v>
@@ -18620,16 +18585,16 @@
     </row>
     <row r="171" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C171" s="1">
         <v>10</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F171" s="1">
         <v>0.15</v>
@@ -18640,16 +18605,16 @@
     </row>
     <row r="172" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B172" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C172" s="1">
         <v>10</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="F172" s="1">
         <v>0.15</v>
@@ -18660,16 +18625,16 @@
     </row>
     <row r="173" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B173" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C173" s="1">
         <v>10</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="F173" s="1">
         <v>0.15</v>
@@ -18680,16 +18645,16 @@
     </row>
     <row r="174" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C174" s="1">
         <v>10</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="F174" s="1">
         <v>0.15</v>
@@ -18700,16 +18665,16 @@
     </row>
     <row r="175" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C175" s="1">
         <v>10</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F175" s="1">
         <v>0.15</v>
@@ -18720,16 +18685,16 @@
     </row>
     <row r="176" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C176" s="1">
         <v>10</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F176" s="1">
         <v>0.15</v>
@@ -18740,16 +18705,16 @@
     </row>
     <row r="177" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C177" s="1">
         <v>10</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F177" s="1">
         <v>0.15</v>
@@ -18760,16 +18725,16 @@
     </row>
     <row r="178" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B178" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C178" s="1">
         <v>10</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F178" s="1">
         <v>0.15</v>
@@ -18780,16 +18745,16 @@
     </row>
     <row r="179" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B179" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C179" s="1">
         <v>10</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F179" s="1">
         <v>0.15</v>
@@ -18800,16 +18765,16 @@
     </row>
     <row r="180" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B180" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C180" s="1">
         <v>10</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F180" s="1">
         <v>0.15</v>
@@ -18820,16 +18785,16 @@
     </row>
     <row r="181" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C181" s="1">
         <v>10</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F181" s="1">
         <v>0.15</v>
@@ -18840,16 +18805,16 @@
     </row>
     <row r="182" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B182" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C182" s="1">
         <v>10</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F182" s="1">
         <v>0.15</v>
@@ -18860,16 +18825,16 @@
     </row>
     <row r="183" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B183" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C183" s="1">
         <v>10</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F183" s="1">
         <v>0.15</v>
@@ -18880,16 +18845,16 @@
     </row>
     <row r="184" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B184" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C184" s="1">
         <v>10</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F184" s="1">
         <v>0.15</v>
@@ -18900,16 +18865,16 @@
     </row>
     <row r="185" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B185" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C185" s="1">
         <v>10</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F185" s="1">
         <v>0.15</v>
@@ -18920,16 +18885,16 @@
     </row>
     <row r="186" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B186" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C186" s="1">
         <v>10</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F186" s="1">
         <v>0.15</v>
@@ -18940,16 +18905,16 @@
     </row>
     <row r="187" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C187" s="1">
         <v>10</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F187" s="1">
         <v>0.15</v>
@@ -18960,16 +18925,16 @@
     </row>
     <row r="188" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C188" s="1">
         <v>10</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F188" s="1">
         <v>0.15</v>
@@ -18980,16 +18945,16 @@
     </row>
     <row r="189" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B189" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C189" s="1">
         <v>10</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F189" s="1">
         <v>0.15</v>
@@ -19000,16 +18965,16 @@
     </row>
     <row r="190" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B190" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C190" s="1">
         <v>10</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="F190" s="1">
         <v>0.15</v>
@@ -19020,16 +18985,16 @@
     </row>
     <row r="191" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B191" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C191" s="1">
         <v>10</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="F191" s="1">
         <v>0.15</v>
@@ -19040,16 +19005,16 @@
     </row>
     <row r="192" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B192" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C192" s="1">
         <v>10</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F192" s="1">
         <v>0.15</v>
@@ -19060,16 +19025,16 @@
     </row>
     <row r="193" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B193" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C193" s="1">
         <v>10</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F193" s="1">
         <v>0.15</v>
@@ -19080,16 +19045,16 @@
     </row>
     <row r="194" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B194" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C194" s="1">
         <v>10</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F194" s="1">
         <v>0.15</v>
@@ -19100,16 +19065,16 @@
     </row>
     <row r="195" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B195" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C195" s="1">
         <v>10</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F195" s="1">
         <v>0.15</v>
@@ -19120,16 +19085,16 @@
     </row>
     <row r="196" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B196" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C196" s="1">
         <v>10</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F196" s="1">
         <v>0.15</v>
@@ -19140,16 +19105,16 @@
     </row>
     <row r="197" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B197" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C197" s="1">
         <v>10</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F197" s="1">
         <v>0.15</v>
@@ -19160,16 +19125,16 @@
     </row>
     <row r="198" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B198" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C198" s="1">
         <v>10</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F198" s="1">
         <v>0.15</v>
@@ -19180,16 +19145,16 @@
     </row>
     <row r="199" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B199" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C199" s="1">
         <v>10</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F199" s="1">
         <v>0.15</v>
@@ -19200,16 +19165,16 @@
     </row>
     <row r="200" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B200" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C200" s="1">
         <v>11</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F200" s="1">
         <v>0.15</v>
@@ -19220,16 +19185,16 @@
     </row>
     <row r="201" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B201" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C201" s="1">
         <v>11</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F201" s="1">
         <v>0.15</v>
@@ -19240,16 +19205,16 @@
     </row>
     <row r="202" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B202" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C202" s="1">
         <v>11</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F202" s="1">
         <v>0.15</v>
@@ -19260,16 +19225,16 @@
     </row>
     <row r="203" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B203" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C203" s="1">
         <v>11</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="F203" s="1">
         <v>0.15</v>
@@ -19280,16 +19245,16 @@
     </row>
     <row r="204" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B204" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C204" s="1">
         <v>11</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="F204" s="1">
         <v>0.15</v>
@@ -19300,16 +19265,16 @@
     </row>
     <row r="205" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B205" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C205" s="1">
         <v>11</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="F205" s="1">
         <v>0.15</v>
@@ -19320,16 +19285,16 @@
     </row>
     <row r="206" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B206" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C206" s="1">
         <v>11</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="F206" s="1">
         <v>0.15</v>
@@ -19340,16 +19305,16 @@
     </row>
     <row r="207" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B207" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C207" s="1">
         <v>11</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="F207" s="1">
         <v>0.15</v>
@@ -19360,16 +19325,16 @@
     </row>
     <row r="208" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B208" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C208" s="1">
         <v>11</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="F208" s="1">
         <v>0.15</v>
@@ -19380,16 +19345,16 @@
     </row>
     <row r="209" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B209" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C209" s="1">
         <v>12</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="F209" s="1">
         <v>0.15</v>
@@ -19400,16 +19365,16 @@
     </row>
     <row r="210" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B210" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C210" s="1">
         <v>12</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="F210" s="1">
         <v>0.15</v>
@@ -19420,16 +19385,16 @@
     </row>
     <row r="211" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B211" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C211" s="1">
         <v>12</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="F211" s="1">
         <v>0.15</v>
@@ -19440,16 +19405,16 @@
     </row>
     <row r="212" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B212" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C212" s="1">
         <v>12</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="F212" s="1">
         <v>0.15</v>
@@ -19460,16 +19425,16 @@
     </row>
     <row r="213" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B213" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C213" s="1">
         <v>12</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="F213" s="1">
         <v>0.15</v>
@@ -19480,16 +19445,16 @@
     </row>
     <row r="214" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B214" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C214" s="1">
         <v>12</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="F214" s="1">
         <v>0.15</v>
@@ -19500,16 +19465,16 @@
     </row>
     <row r="215" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B215" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C215" s="1">
         <v>12</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="F215" s="1">
         <v>0.15</v>
@@ -19520,16 +19485,16 @@
     </row>
     <row r="216" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B216" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C216" s="1">
         <v>12</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="F216" s="1">
         <v>0.15</v>
@@ -19540,16 +19505,16 @@
     </row>
     <row r="217" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B217" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C217" s="1">
         <v>13</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F217" s="1">
         <v>0.15</v>
@@ -19560,16 +19525,16 @@
     </row>
     <row r="218" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B218" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C218" s="1">
         <v>13</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F218" s="1">
         <v>0.15</v>
@@ -19580,16 +19545,16 @@
     </row>
     <row r="219" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B219" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C219" s="1">
         <v>13</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F219" s="1">
         <v>0.15</v>
@@ -19600,16 +19565,16 @@
     </row>
     <row r="220" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B220" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C220" s="1">
         <v>13</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F220" s="1">
         <v>0.15</v>
@@ -19620,13 +19585,13 @@
     </row>
     <row r="221" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B221" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C221" s="1">
         <v>1</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E221" s="4" t="s">
         <v>0</v>
@@ -19640,13 +19605,13 @@
     </row>
     <row r="222" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B222" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C222" s="1">
         <v>1</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E222" s="4" t="s">
         <v>0</v>
@@ -19660,13 +19625,13 @@
     </row>
     <row r="223" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B223" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C223" s="1">
         <v>1</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E223" s="4" t="s">
         <v>0</v>
@@ -19680,13 +19645,13 @@
     </row>
     <row r="224" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B224" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C224" s="1">
         <v>1</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E224" s="4" t="s">
         <v>0</v>
@@ -19700,13 +19665,13 @@
     </row>
     <row r="225" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B225" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C225" s="1">
         <v>2</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E225" s="4" t="s">
         <v>0</v>
@@ -19720,13 +19685,13 @@
     </row>
     <row r="226" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B226" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C226" s="1">
         <v>2</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E226" s="4" t="s">
         <v>0</v>
@@ -19740,13 +19705,13 @@
     </row>
     <row r="227" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B227" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C227" s="1">
         <v>2</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E227" s="4" t="s">
         <v>0</v>
@@ -19760,13 +19725,13 @@
     </row>
     <row r="228" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B228" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C228" s="1">
         <v>2</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E228" s="4" t="s">
         <v>0</v>
@@ -19780,13 +19745,13 @@
     </row>
     <row r="229" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B229" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C229" s="1">
         <v>3</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E229" s="4" t="s">
         <v>0</v>
@@ -19800,13 +19765,13 @@
     </row>
     <row r="230" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B230" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C230" s="1">
         <v>3</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E230" s="4" t="s">
         <v>0</v>
@@ -19820,13 +19785,13 @@
     </row>
     <row r="231" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B231" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C231" s="1">
         <v>3</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E231" s="4" t="s">
         <v>0</v>
@@ -19840,13 +19805,13 @@
     </row>
     <row r="232" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B232" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C232" s="1">
         <v>3</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E232" s="4" t="s">
         <v>0</v>
@@ -19860,13 +19825,13 @@
     </row>
     <row r="233" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B233" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C233" s="1">
         <v>4</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E233" s="4" t="s">
         <v>1</v>
@@ -19880,13 +19845,13 @@
     </row>
     <row r="234" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B234" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C234" s="1">
         <v>4</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="E234" s="4" t="s">
         <v>1</v>
@@ -19900,13 +19865,13 @@
     </row>
     <row r="235" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B235" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C235" s="1">
         <v>4</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="E235" s="4" t="s">
         <v>1</v>
@@ -19920,13 +19885,13 @@
     </row>
     <row r="236" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B236" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C236" s="1">
         <v>4</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="E236" s="4" t="s">
         <v>1</v>
@@ -19940,13 +19905,13 @@
     </row>
     <row r="237" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B237" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C237" s="1">
         <v>1</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E237" s="4" t="s">
         <v>0</v>
@@ -19960,13 +19925,13 @@
     </row>
     <row r="238" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B238" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C238" s="1">
         <v>1</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E238" s="4" t="s">
         <v>0</v>
@@ -19980,13 +19945,13 @@
     </row>
     <row r="239" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B239" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C239" s="1">
         <v>1</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E239" s="4" t="s">
         <v>0</v>
@@ -20000,13 +19965,13 @@
     </row>
     <row r="240" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B240" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C240" s="1">
         <v>1</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E240" s="4" t="s">
         <v>0</v>
@@ -20020,13 +19985,13 @@
     </row>
     <row r="241" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B241" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C241" s="1">
         <v>2</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E241" s="4" t="s">
         <v>0</v>
@@ -20040,13 +20005,13 @@
     </row>
     <row r="242" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B242" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C242" s="1">
         <v>2</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E242" s="4" t="s">
         <v>0</v>
@@ -20060,13 +20025,13 @@
     </row>
     <row r="243" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B243" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C243" s="1">
         <v>2</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E243" s="4" t="s">
         <v>0</v>
@@ -20080,13 +20045,13 @@
     </row>
     <row r="244" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B244" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C244" s="1">
         <v>2</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E244" s="4" t="s">
         <v>0</v>
@@ -20100,13 +20065,13 @@
     </row>
     <row r="245" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B245" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C245" s="1">
         <v>3</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E245" s="4" t="s">
         <v>0</v>
@@ -20120,13 +20085,13 @@
     </row>
     <row r="246" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B246" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C246" s="1">
         <v>3</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E246" s="4" t="s">
         <v>0</v>
@@ -20140,13 +20105,13 @@
     </row>
     <row r="247" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B247" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C247" s="1">
         <v>3</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E247" s="4" t="s">
         <v>0</v>
@@ -20160,13 +20125,13 @@
     </row>
     <row r="248" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B248" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C248" s="1">
         <v>3</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E248" s="4" t="s">
         <v>0</v>
@@ -20180,13 +20145,13 @@
     </row>
     <row r="249" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B249" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C249" s="1">
         <v>4</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E249" s="4" t="s">
         <v>1</v>
@@ -20200,13 +20165,13 @@
     </row>
     <row r="250" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B250" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C250" s="1">
         <v>4</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E250" s="4" t="s">
         <v>1</v>
@@ -20220,13 +20185,13 @@
     </row>
     <row r="251" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B251" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C251" s="1">
         <v>4</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E251" s="4" t="s">
         <v>1</v>
@@ -20240,13 +20205,13 @@
     </row>
     <row r="252" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B252" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C252" s="1">
         <v>4</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E252" s="4" t="s">
         <v>1</v>
@@ -20260,16 +20225,16 @@
     </row>
     <row r="253" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B253" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C253" s="1">
         <v>5</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F253" s="1">
         <v>1.1000000000000001</v>
@@ -20280,16 +20245,16 @@
     </row>
     <row r="254" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B254" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C254" s="1">
         <v>5</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F254" s="1">
         <v>1.1000000000000001</v>
@@ -20300,16 +20265,16 @@
     </row>
     <row r="255" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B255" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C255" s="1">
         <v>5</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F255" s="1">
         <v>1.1000000000000001</v>
@@ -20320,16 +20285,16 @@
     </row>
     <row r="256" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B256" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C256" s="1">
         <v>5</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F256" s="1">
         <v>1.1000000000000001</v>
@@ -20340,13 +20305,13 @@
     </row>
     <row r="257" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B257" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C257" s="1">
         <v>1</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E257" s="4" t="s">
         <v>0</v>
@@ -20360,13 +20325,13 @@
     </row>
     <row r="258" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B258" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C258" s="1">
         <v>1</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E258" s="4" t="s">
         <v>0</v>
@@ -20380,13 +20345,13 @@
     </row>
     <row r="259" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B259" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C259" s="1">
         <v>1</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E259" s="4" t="s">
         <v>0</v>
@@ -20400,13 +20365,13 @@
     </row>
     <row r="260" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B260" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C260" s="1">
         <v>1</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E260" s="4" t="s">
         <v>0</v>
@@ -20420,13 +20385,13 @@
     </row>
     <row r="261" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B261" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C261" s="1">
         <v>2</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E261" s="4" t="s">
         <v>0</v>
@@ -20440,13 +20405,13 @@
     </row>
     <row r="262" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B262" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C262" s="1">
         <v>2</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E262" s="4" t="s">
         <v>0</v>
@@ -20460,13 +20425,13 @@
     </row>
     <row r="263" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B263" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C263" s="1">
         <v>2</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E263" s="4" t="s">
         <v>0</v>
@@ -20480,13 +20445,13 @@
     </row>
     <row r="264" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B264" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C264" s="1">
         <v>2</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E264" s="4" t="s">
         <v>0</v>
@@ -20500,13 +20465,13 @@
     </row>
     <row r="265" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B265" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C265" s="1">
         <v>3</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E265" s="4" t="s">
         <v>0</v>
@@ -20520,13 +20485,13 @@
     </row>
     <row r="266" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B266" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C266" s="1">
         <v>3</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E266" s="4" t="s">
         <v>0</v>
@@ -20540,13 +20505,13 @@
     </row>
     <row r="267" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B267" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C267" s="1">
         <v>3</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E267" s="4" t="s">
         <v>0</v>
@@ -20560,13 +20525,13 @@
     </row>
     <row r="268" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B268" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C268" s="1">
         <v>3</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E268" s="4" t="s">
         <v>0</v>
@@ -20580,13 +20545,13 @@
     </row>
     <row r="269" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B269" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C269" s="1">
         <v>4</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E269" s="4" t="s">
         <v>1</v>
@@ -20600,13 +20565,13 @@
     </row>
     <row r="270" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B270" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C270" s="1">
         <v>4</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E270" s="4" t="s">
         <v>1</v>
@@ -20620,13 +20585,13 @@
     </row>
     <row r="271" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B271" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C271" s="1">
         <v>4</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E271" s="4" t="s">
         <v>1</v>
@@ -20640,13 +20605,13 @@
     </row>
     <row r="272" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B272" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C272" s="1">
         <v>4</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E272" s="4" t="s">
         <v>1</v>
@@ -20660,16 +20625,16 @@
     </row>
     <row r="273" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B273" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C273" s="1">
         <v>5</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F273" s="1">
         <v>0.15</v>
@@ -20680,16 +20645,16 @@
     </row>
     <row r="274" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B274" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C274" s="1">
         <v>5</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F274" s="1">
         <v>0.15</v>
@@ -20700,16 +20665,16 @@
     </row>
     <row r="275" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B275" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C275" s="1">
         <v>5</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F275" s="1">
         <v>0.15</v>
@@ -20720,16 +20685,16 @@
     </row>
     <row r="276" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B276" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C276" s="1">
         <v>5</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="F276" s="1">
         <v>0.15</v>
@@ -20740,16 +20705,16 @@
     </row>
     <row r="277" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B277" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C277" s="1">
         <v>6</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F277" s="1">
         <v>1.1000000000000001</v>
@@ -20760,16 +20725,16 @@
     </row>
     <row r="278" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B278" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C278" s="1">
         <v>6</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F278" s="1">
         <v>1.1000000000000001</v>
@@ -20780,16 +20745,16 @@
     </row>
     <row r="279" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B279" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C279" s="1">
         <v>6</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F279" s="1">
         <v>1.1000000000000001</v>
@@ -20800,16 +20765,16 @@
     </row>
     <row r="280" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B280" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C280" s="1">
         <v>6</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F280" s="1">
         <v>1.1000000000000001</v>
@@ -20820,16 +20785,16 @@
     </row>
     <row r="281" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B281" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C281" s="1">
         <v>7</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="F281" s="1">
         <v>0.05</v>
@@ -20840,16 +20805,16 @@
     </row>
     <row r="282" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B282" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C282" s="1">
         <v>7</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="F282" s="1">
         <v>0.05</v>
@@ -20860,16 +20825,16 @@
     </row>
     <row r="283" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B283" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C283" s="1">
         <v>7</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="F283" s="1">
         <v>0.05</v>
@@ -20880,16 +20845,16 @@
     </row>
     <row r="284" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B284" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C284" s="1">
         <v>7</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="F284" s="1">
         <v>0.05</v>
@@ -20900,16 +20865,16 @@
     </row>
     <row r="285" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B285" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C285" s="1">
         <v>8</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F285" s="1">
         <v>0.1</v>
@@ -20920,16 +20885,16 @@
     </row>
     <row r="286" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B286" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C286" s="1">
         <v>8</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F286" s="1">
         <v>0.1</v>
@@ -20940,16 +20905,16 @@
     </row>
     <row r="287" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B287" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C287" s="1">
         <v>8</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F287" s="1">
         <v>0.1</v>
@@ -20960,16 +20925,16 @@
     </row>
     <row r="288" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B288" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C288" s="1">
         <v>8</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F288" s="1">
         <v>0.1</v>
@@ -20980,16 +20945,16 @@
     </row>
     <row r="289" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B289" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C289" s="1">
         <v>8</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E289" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F289" s="1">
         <v>0.1</v>
@@ -21000,16 +20965,16 @@
     </row>
     <row r="290" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B290" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C290" s="1">
         <v>8</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E290" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F290" s="1">
         <v>0.1</v>
@@ -21020,16 +20985,16 @@
     </row>
     <row r="291" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B291" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C291" s="1">
         <v>8</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E291" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F291" s="1">
         <v>0.1</v>
@@ -21040,16 +21005,16 @@
     </row>
     <row r="292" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B292" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C292" s="1">
         <v>8</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F292" s="1">
         <v>0.1</v>
@@ -21060,16 +21025,16 @@
     </row>
     <row r="293" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B293" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C293" s="1">
         <v>1</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E293" s="4" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="G293" s="1">
         <v>1</v>
@@ -21077,16 +21042,16 @@
     </row>
     <row r="294" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B294" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C294" s="1">
         <v>1</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="G294" s="1">
         <v>1</v>
@@ -21094,16 +21059,16 @@
     </row>
     <row r="295" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B295" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C295" s="1">
         <v>1</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="G295" s="1">
         <v>1</v>
@@ -21111,16 +21076,16 @@
     </row>
     <row r="296" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B296" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C296" s="1">
         <v>1</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="G296" s="1">
         <v>1</v>
@@ -21128,16 +21093,16 @@
     </row>
     <row r="297" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B297" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C297" s="1">
         <v>2</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="G297" s="1">
         <v>1</v>
@@ -21145,16 +21110,16 @@
     </row>
     <row r="298" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B298" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C298" s="1">
         <v>2</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="G298" s="1">
         <v>1</v>
@@ -21162,16 +21127,16 @@
     </row>
     <row r="299" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B299" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C299" s="1">
         <v>2</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="G299" s="1">
         <v>1</v>
@@ -21179,16 +21144,16 @@
     </row>
     <row r="300" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B300" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C300" s="1">
         <v>2</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="E300" s="4" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="G300" s="1">
         <v>1</v>
@@ -21196,16 +21161,16 @@
     </row>
     <row r="301" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B301" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C301" s="1">
         <v>3</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E301" s="4" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="G301" s="1">
         <v>1</v>
@@ -21213,16 +21178,16 @@
     </row>
     <row r="302" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B302" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C302" s="1">
         <v>3</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="G302" s="1">
         <v>1</v>
@@ -21230,16 +21195,16 @@
     </row>
     <row r="303" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B303" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C303" s="1">
         <v>3</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E303" s="4" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="G303" s="1">
         <v>1</v>
@@ -21247,16 +21212,16 @@
     </row>
     <row r="304" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B304" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C304" s="1">
         <v>3</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E304" s="4" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="G304" s="1">
         <v>1</v>
@@ -21264,13 +21229,13 @@
     </row>
     <row r="305" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B305" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C305" s="1">
         <v>4</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="E305" s="4" t="s">
         <v>1</v>
@@ -21281,13 +21246,13 @@
     </row>
     <row r="306" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B306" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C306" s="1">
         <v>4</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="E306" s="4" t="s">
         <v>1</v>
@@ -21298,13 +21263,13 @@
     </row>
     <row r="307" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B307" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C307" s="1">
         <v>4</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="E307" s="4" t="s">
         <v>1</v>
@@ -21315,13 +21280,13 @@
     </row>
     <row r="308" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B308" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C308" s="1">
         <v>4</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="E308" s="4" t="s">
         <v>1</v>
@@ -21332,13 +21297,13 @@
     </row>
     <row r="309" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B309" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C309" s="1">
         <v>4</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="E309" s="4" t="s">
         <v>1</v>
@@ -21349,16 +21314,16 @@
     </row>
     <row r="310" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B310" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C310" s="1">
         <v>5</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G310" s="1">
         <v>1</v>
@@ -21366,16 +21331,16 @@
     </row>
     <row r="311" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B311" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C311" s="1">
         <v>5</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G311" s="1">
         <v>1</v>
@@ -21383,16 +21348,16 @@
     </row>
     <row r="312" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B312" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C312" s="1">
         <v>5</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G312" s="1">
         <v>1</v>
@@ -21400,16 +21365,16 @@
     </row>
     <row r="313" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B313" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C313" s="1">
         <v>5</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="E313" s="4" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G313" s="1">
         <v>1</v>
@@ -21417,16 +21382,16 @@
     </row>
     <row r="314" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B314" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C314" s="1">
         <v>5</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="G314" s="1">
         <v>1</v>
@@ -21434,16 +21399,16 @@
     </row>
     <row r="315" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B315" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C315" s="1">
         <v>6</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="G315" s="1">
         <v>1</v>
@@ -21451,16 +21416,16 @@
     </row>
     <row r="316" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B316" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C316" s="1">
         <v>6</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="G316" s="1">
         <v>1</v>
@@ -21468,16 +21433,16 @@
     </row>
     <row r="317" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B317" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C317" s="1">
         <v>6</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="G317" s="1">
         <v>1</v>
@@ -21485,16 +21450,16 @@
     </row>
     <row r="318" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B318" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C318" s="1">
         <v>6</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="G318" s="1">
         <v>1</v>
@@ -21502,16 +21467,16 @@
     </row>
     <row r="319" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B319" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C319" s="1">
         <v>7</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G319" s="1">
         <v>1</v>
@@ -21519,16 +21484,16 @@
     </row>
     <row r="320" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B320" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C320" s="1">
         <v>7</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G320" s="1">
         <v>1</v>
@@ -21536,16 +21501,16 @@
     </row>
     <row r="321" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B321" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C321" s="1">
         <v>7</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="E321" s="4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G321" s="1">
         <v>1</v>
@@ -21553,16 +21518,16 @@
     </row>
     <row r="322" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B322" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C322" s="1">
         <v>7</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="E322" s="4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G322" s="1">
         <v>1</v>
@@ -21570,16 +21535,16 @@
     </row>
     <row r="323" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B323" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C323" s="1">
         <v>8</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E323" s="4" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="G323" s="1">
         <v>1</v>
@@ -21587,16 +21552,16 @@
     </row>
     <row r="324" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B324" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C324" s="1">
         <v>8</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E324" s="4" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="G324" s="1">
         <v>1</v>
@@ -21604,16 +21569,16 @@
     </row>
     <row r="325" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B325" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C325" s="1">
         <v>8</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E325" s="4" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="G325" s="1">
         <v>1</v>
@@ -21621,16 +21586,16 @@
     </row>
     <row r="326" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B326" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C326" s="1">
         <v>8</v>
       </c>
       <c r="D326" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="G326" s="1">
         <v>1</v>
@@ -21638,16 +21603,16 @@
     </row>
     <row r="327" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B327" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C327" s="1">
         <v>8</v>
       </c>
       <c r="D327" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="G327" s="1">
         <v>1</v>
@@ -21655,16 +21620,16 @@
     </row>
     <row r="328" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B328" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C328" s="1">
         <v>9</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E328" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G328" s="1">
         <v>1</v>
@@ -21672,16 +21637,16 @@
     </row>
     <row r="329" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B329" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C329" s="1">
         <v>9</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E329" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G329" s="1">
         <v>1</v>
@@ -21689,16 +21654,16 @@
     </row>
     <row r="330" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B330" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C330" s="1">
         <v>9</v>
       </c>
       <c r="D330" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E330" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G330" s="1">
         <v>1</v>
@@ -21706,16 +21671,16 @@
     </row>
     <row r="331" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B331" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C331" s="1">
         <v>9</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E331" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G331" s="1">
         <v>1</v>
@@ -21723,16 +21688,16 @@
     </row>
     <row r="332" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B332" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C332" s="1">
         <v>9</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E332" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G332" s="1">
         <v>1</v>
@@ -21740,16 +21705,16 @@
     </row>
     <row r="333" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B333" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C333" s="1">
         <v>9</v>
       </c>
       <c r="D333" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E333" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G333" s="1">
         <v>1</v>
@@ -21757,16 +21722,16 @@
     </row>
     <row r="334" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B334" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C334" s="1">
         <v>9</v>
       </c>
       <c r="D334" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E334" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G334" s="1">
         <v>1</v>
@@ -21774,16 +21739,16 @@
     </row>
     <row r="335" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B335" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C335" s="1">
         <v>9</v>
       </c>
       <c r="D335" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E335" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G335" s="1">
         <v>1</v>

--- a/ReportsAndDocuments/Products Table.xlsx
+++ b/ReportsAndDocuments/Products Table.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://productcare-my.sharepoint.com/personal/narachchi_productcare_org/Documents/Desktop/Member Inquiry - ML Project/Originals/Exported/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1173" documentId="8_{09781430-8970-4F6C-837D-BD273C6253D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D245EC72-6EB6-4549-97BB-80822C081079}"/>
+  <xr:revisionPtr revIDLastSave="1472" documentId="8_{09781430-8970-4F6C-837D-BD273C6253D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A3772DD-5FB4-4B1B-897F-7B5F1EBA3174}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6885" windowWidth="29040" windowHeight="15720" xr2:uid="{A97E8DE1-7EAA-465B-9398-8DE522110DAD}"/>
+    <workbookView xWindow="-28920" yWindow="1725" windowWidth="29040" windowHeight="15720" xr2:uid="{A97E8DE1-7EAA-465B-9398-8DE522110DAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$G$338</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="141">
   <si>
     <t>Includes all diameters and light outputs, shaped fluorescent tubes, and UV-A and UV-B tubes.</t>
   </si>
@@ -308,6 +311,162 @@
   <si>
     <t>Includes all HID technologies that contain mercury, such as High-Pressure Sodium (HPS), Low-Pressure Sodium (LPS), Mercury Vapor and Metal Halide, as well as UV-C / Germicidal lamps and tubes, Tubular Induction lamps (circular, square, U etc.), UHP replacement lamps (projector etc.), Neon replacement lamps, etc.</t>
   </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Product Guide</t>
+  </si>
+  <si>
+    <t>Aquarium equipment</t>
+  </si>
+  <si>
+    <t>Auto fixtures</t>
+  </si>
+  <si>
+    <t>Ventilation fans</t>
+  </si>
+  <si>
+    <t>Black light equipment</t>
+  </si>
+  <si>
+    <t>Bug zappers</t>
+  </si>
+  <si>
+    <t>Camera and video accessories</t>
+  </si>
+  <si>
+    <t>Electronic billboards</t>
+  </si>
+  <si>
+    <t>Equipment to heat food</t>
+  </si>
+  <si>
+    <t>Exit signs without light heads</t>
+  </si>
+  <si>
+    <t>Fencing with integrated lights</t>
+  </si>
+  <si>
+    <t>Fountains with integrated lights</t>
+  </si>
+  <si>
+    <t>Garlands with integrated lights</t>
+  </si>
+  <si>
+    <t>Lava lamps</t>
+  </si>
+  <si>
+    <t>Mirror ball lights</t>
+  </si>
+  <si>
+    <t>Neon signs</t>
+  </si>
+  <si>
+    <t>Plasma balls</t>
+  </si>
+  <si>
+    <t>Strobe lights</t>
+  </si>
+  <si>
+    <t>Sunshine simulators</t>
+  </si>
+  <si>
+    <t>Medical, dental and veterinarian lighting equipment</t>
+  </si>
+  <si>
+    <t>Backlit signs</t>
+  </si>
+  <si>
+    <t>Propane and gas-powered lights</t>
+  </si>
+  <si>
+    <t>Tanning beds</t>
+  </si>
+  <si>
+    <t>Umbrellas with integrated lights</t>
+  </si>
+  <si>
+    <t>Vanity mirrors with lights</t>
+  </si>
+  <si>
+    <t>Watches</t>
+  </si>
+  <si>
+    <t>Horticultural lighting fixtures such as greenhouse or grow lamp fixtures</t>
+  </si>
+  <si>
+    <t>Equipment to warm animals (such as brooder fixtures)</t>
+  </si>
+  <si>
+    <t>Decorative key chains with integrated lights</t>
+  </si>
+  <si>
+    <t>Laser pointers and other laser products</t>
+  </si>
+  <si>
+    <t>Light up shoes, hats, collars, and clothes</t>
+  </si>
+  <si>
+    <t>Marine and aeronautical fixtures</t>
+  </si>
+  <si>
+    <t>Signaling equipment such as traffic lights and railway lights</t>
+  </si>
+  <si>
+    <t>Trees (artificial, with integrated lights)</t>
+  </si>
+  <si>
+    <t>Decorative sculptures and statues with one or more integrated lights where the primary purpose of the product is decorative, and the contained lights are designed to light the decoration itself and not to illuminate surrounding space</t>
+  </si>
+  <si>
+    <t>Holiday decorations (other than string lights and stake lights), such as jack-o-lanterns, decorative sculptures and plastic Santas</t>
+  </si>
+  <si>
+    <t>Alarms, phones, and devices for the visually impaired</t>
+  </si>
+  <si>
+    <t>Parts and accessories designed to be integrated into a complete fixture</t>
+  </si>
+  <si>
+    <t>Products containing lights whose primary purpose is to signal or display information, rather than to illuminate or help illuminate a space</t>
+  </si>
+  <si>
+    <t>Table lamp sockets and replacement shades</t>
+  </si>
+  <si>
+    <t>Trim for recessed lights sold separately from housing</t>
+  </si>
+  <si>
+    <t>Lighting tracks without heads attached</t>
+  </si>
+  <si>
+    <t>Lamp-holders for linear fixtures that are not stand- alone and must be integrated into a linear fixture</t>
+  </si>
+  <si>
+    <t>Light switches and controls (such as dimmers and timers)</t>
+  </si>
+  <si>
+    <t>Replacement cords</t>
+  </si>
+  <si>
+    <t>Lighting posts sold separately from post top fixtures</t>
+  </si>
+  <si>
+    <t>LED drivers</t>
+  </si>
+  <si>
+    <t>Headlights with a built-in protective lens or housing</t>
+  </si>
+  <si>
+    <t>Decorative / Accessory Lighting</t>
+  </si>
+  <si>
+    <t>Safety / Trailer / Tail / Identification Lights</t>
+  </si>
+  <si>
+    <t>Fixtures integrated into a mode of transportation with the primary purpose is navigation, navigational safety, signaling or displaying information, or illuminating space within the mode of transportation. These are defined as light-sources that are integrated into a protective lens and / or housing and designed to function as stand-alone or replacement lighting products to permit the transportation device to safely navigate to its destination or illuminate a space within the mode of transportation.</t>
+  </si>
 </sst>
 </file>
 
@@ -12242,57 +12401,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>275</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>644525</xdr:colOff>
-      <xdr:row>275</xdr:row>
-      <xdr:rowOff>608330</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="275" name="image17.jpeg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F3E06BA-8FE0-03AB-8E9F-7FD47A2CB05F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="347291025"/>
-          <a:ext cx="644525" cy="608330"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>276</xdr:row>
+      <xdr:row>279</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>378460</xdr:colOff>
-      <xdr:row>276</xdr:row>
+      <xdr:row>279</xdr:row>
       <xdr:rowOff>647700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12330,13 +12445,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>277</xdr:row>
+      <xdr:row>280</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>646430</xdr:colOff>
-      <xdr:row>277</xdr:row>
+      <xdr:row>280</xdr:row>
       <xdr:rowOff>466090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12374,13 +12489,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>278</xdr:row>
+      <xdr:row>281</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>600710</xdr:colOff>
-      <xdr:row>278</xdr:row>
+      <xdr:row>281</xdr:row>
       <xdr:rowOff>638810</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12418,13 +12533,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>279</xdr:row>
+      <xdr:row>282</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>639445</xdr:colOff>
-      <xdr:row>279</xdr:row>
+      <xdr:row>282</xdr:row>
       <xdr:rowOff>636270</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12462,13 +12577,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>280</xdr:row>
+      <xdr:row>283</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>393065</xdr:colOff>
-      <xdr:row>280</xdr:row>
+      <xdr:row>283</xdr:row>
       <xdr:rowOff>639445</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12506,13 +12621,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>281</xdr:row>
+      <xdr:row>284</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>281</xdr:row>
+      <xdr:row>284</xdr:row>
       <xdr:rowOff>589280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12550,13 +12665,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>282</xdr:row>
+      <xdr:row>285</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>393065</xdr:colOff>
-      <xdr:row>282</xdr:row>
+      <xdr:row>285</xdr:row>
       <xdr:rowOff>600075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12594,13 +12709,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>283</xdr:row>
+      <xdr:row>286</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>644525</xdr:colOff>
-      <xdr:row>283</xdr:row>
+      <xdr:row>286</xdr:row>
       <xdr:rowOff>644525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12638,13 +12753,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>284</xdr:row>
+      <xdr:row>287</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>332105</xdr:colOff>
-      <xdr:row>284</xdr:row>
+      <xdr:row>287</xdr:row>
       <xdr:rowOff>630555</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12682,13 +12797,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>285</xdr:row>
+      <xdr:row>288</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>654050</xdr:colOff>
-      <xdr:row>285</xdr:row>
+      <xdr:row>288</xdr:row>
       <xdr:rowOff>626110</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12726,13 +12841,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>286</xdr:row>
+      <xdr:row>289</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>410845</xdr:colOff>
-      <xdr:row>286</xdr:row>
+      <xdr:row>289</xdr:row>
       <xdr:rowOff>636270</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12770,13 +12885,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>287</xdr:row>
+      <xdr:row>290</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>636905</xdr:colOff>
-      <xdr:row>287</xdr:row>
+      <xdr:row>290</xdr:row>
       <xdr:rowOff>615950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12814,13 +12929,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>288</xdr:row>
+      <xdr:row>291</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>644525</xdr:colOff>
-      <xdr:row>288</xdr:row>
+      <xdr:row>291</xdr:row>
       <xdr:rowOff>579120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12858,13 +12973,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>289</xdr:row>
+      <xdr:row>292</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>583565</xdr:colOff>
-      <xdr:row>289</xdr:row>
+      <xdr:row>292</xdr:row>
       <xdr:rowOff>629920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12902,13 +13017,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>290</xdr:row>
+      <xdr:row>293</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>568960</xdr:colOff>
-      <xdr:row>290</xdr:row>
+      <xdr:row>293</xdr:row>
       <xdr:rowOff>541655</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12946,13 +13061,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>291</xdr:row>
+      <xdr:row>294</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>562610</xdr:colOff>
-      <xdr:row>291</xdr:row>
+      <xdr:row>294</xdr:row>
       <xdr:rowOff>616585</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12990,13 +13105,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>292</xdr:row>
+      <xdr:row>295</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>292</xdr:row>
+      <xdr:row>295</xdr:row>
       <xdr:rowOff>596900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13034,13 +13149,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>293</xdr:row>
+      <xdr:row>296</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>636270</xdr:colOff>
-      <xdr:row>293</xdr:row>
+      <xdr:row>296</xdr:row>
       <xdr:rowOff>636270</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13078,13 +13193,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>294</xdr:row>
+      <xdr:row>297</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>610870</xdr:colOff>
-      <xdr:row>294</xdr:row>
+      <xdr:row>297</xdr:row>
       <xdr:rowOff>648335</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13122,13 +13237,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>295</xdr:row>
+      <xdr:row>298</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>644525</xdr:colOff>
-      <xdr:row>295</xdr:row>
+      <xdr:row>298</xdr:row>
       <xdr:rowOff>644525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13166,7 +13281,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>296</xdr:row>
+      <xdr:row>299</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="638175" cy="600075"/>
@@ -13205,7 +13320,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>297</xdr:row>
+      <xdr:row>300</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="639445" cy="639445"/>
@@ -13244,7 +13359,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>298</xdr:row>
+      <xdr:row>301</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="610870" cy="648335"/>
@@ -13283,7 +13398,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>299</xdr:row>
+      <xdr:row>302</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="644525" cy="644525"/>
@@ -13322,7 +13437,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>300</xdr:row>
+      <xdr:row>303</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="635000" cy="596900"/>
@@ -13361,7 +13476,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>301</xdr:row>
+      <xdr:row>304</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="636270" cy="636270"/>
@@ -13400,7 +13515,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>302</xdr:row>
+      <xdr:row>305</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="610870" cy="648335"/>
@@ -13439,7 +13554,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>303</xdr:row>
+      <xdr:row>306</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="644525" cy="644525"/>
@@ -13478,13 +13593,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>304</xdr:row>
+      <xdr:row>307</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304165</xdr:colOff>
-      <xdr:row>304</xdr:row>
+      <xdr:row>307</xdr:row>
       <xdr:rowOff>635000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13522,13 +13637,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>305</xdr:row>
+      <xdr:row>308</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>550545</xdr:colOff>
-      <xdr:row>305</xdr:row>
+      <xdr:row>308</xdr:row>
       <xdr:rowOff>563245</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13566,13 +13681,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>306</xdr:row>
+      <xdr:row>309</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>640080</xdr:colOff>
-      <xdr:row>306</xdr:row>
+      <xdr:row>309</xdr:row>
       <xdr:rowOff>506095</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13610,13 +13725,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>307</xdr:row>
+      <xdr:row>310</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>332740</xdr:colOff>
-      <xdr:row>307</xdr:row>
+      <xdr:row>310</xdr:row>
       <xdr:rowOff>637540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13654,13 +13769,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>308</xdr:row>
+      <xdr:row>311</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>469265</xdr:colOff>
-      <xdr:row>308</xdr:row>
+      <xdr:row>311</xdr:row>
       <xdr:rowOff>618490</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13698,13 +13813,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>309</xdr:row>
+      <xdr:row>312</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>628015</xdr:colOff>
-      <xdr:row>309</xdr:row>
+      <xdr:row>312</xdr:row>
       <xdr:rowOff>411480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13742,13 +13857,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>310</xdr:row>
+      <xdr:row>313</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>580390</xdr:colOff>
-      <xdr:row>310</xdr:row>
+      <xdr:row>313</xdr:row>
       <xdr:rowOff>525780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13786,13 +13901,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>311</xdr:row>
+      <xdr:row>314</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>545465</xdr:colOff>
-      <xdr:row>311</xdr:row>
+      <xdr:row>314</xdr:row>
       <xdr:rowOff>598805</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13830,13 +13945,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>312</xdr:row>
+      <xdr:row>315</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>506730</xdr:colOff>
-      <xdr:row>312</xdr:row>
+      <xdr:row>315</xdr:row>
       <xdr:rowOff>657860</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13874,13 +13989,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>313</xdr:row>
+      <xdr:row>316</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>231140</xdr:colOff>
-      <xdr:row>313</xdr:row>
+      <xdr:row>316</xdr:row>
       <xdr:rowOff>694690</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13918,13 +14033,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>314</xdr:row>
+      <xdr:row>317</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>582295</xdr:colOff>
-      <xdr:row>314</xdr:row>
+      <xdr:row>317</xdr:row>
       <xdr:rowOff>582930</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13962,13 +14077,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>315</xdr:row>
+      <xdr:row>318</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>97790</xdr:colOff>
-      <xdr:row>315</xdr:row>
+      <xdr:row>318</xdr:row>
       <xdr:rowOff>583565</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14006,13 +14121,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>316</xdr:row>
+      <xdr:row>319</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>255270</xdr:colOff>
-      <xdr:row>316</xdr:row>
+      <xdr:row>319</xdr:row>
       <xdr:rowOff>599440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14050,13 +14165,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>317</xdr:row>
+      <xdr:row>320</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>354330</xdr:colOff>
-      <xdr:row>317</xdr:row>
+      <xdr:row>320</xdr:row>
       <xdr:rowOff>588010</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14094,13 +14209,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>318</xdr:row>
+      <xdr:row>321</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>339725</xdr:colOff>
-      <xdr:row>318</xdr:row>
+      <xdr:row>321</xdr:row>
       <xdr:rowOff>647700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14138,13 +14253,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>319</xdr:row>
+      <xdr:row>322</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>646430</xdr:colOff>
-      <xdr:row>319</xdr:row>
+      <xdr:row>322</xdr:row>
       <xdr:rowOff>466090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14182,13 +14297,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>320</xdr:row>
+      <xdr:row>323</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>199390</xdr:colOff>
-      <xdr:row>320</xdr:row>
+      <xdr:row>323</xdr:row>
       <xdr:rowOff>647065</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14226,13 +14341,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>321</xdr:row>
+      <xdr:row>324</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>321</xdr:row>
+      <xdr:row>324</xdr:row>
       <xdr:rowOff>541655</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14270,13 +14385,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>322</xdr:row>
+      <xdr:row>325</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>393065</xdr:colOff>
-      <xdr:row>322</xdr:row>
+      <xdr:row>325</xdr:row>
       <xdr:rowOff>639445</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14314,13 +14429,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>323</xdr:row>
+      <xdr:row>326</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>354330</xdr:colOff>
-      <xdr:row>323</xdr:row>
+      <xdr:row>326</xdr:row>
       <xdr:rowOff>644525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14358,13 +14473,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>324</xdr:row>
+      <xdr:row>327</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>393065</xdr:colOff>
-      <xdr:row>324</xdr:row>
+      <xdr:row>327</xdr:row>
       <xdr:rowOff>592455</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14402,13 +14517,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>325</xdr:row>
+      <xdr:row>328</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>644525</xdr:colOff>
-      <xdr:row>325</xdr:row>
+      <xdr:row>328</xdr:row>
       <xdr:rowOff>644525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14446,13 +14561,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>326</xdr:row>
+      <xdr:row>329</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>240030</xdr:colOff>
-      <xdr:row>326</xdr:row>
+      <xdr:row>329</xdr:row>
       <xdr:rowOff>636270</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14490,13 +14605,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>327</xdr:row>
+      <xdr:row>330</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>269240</xdr:colOff>
-      <xdr:row>327</xdr:row>
+      <xdr:row>330</xdr:row>
       <xdr:rowOff>503555</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14534,13 +14649,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>330</xdr:row>
+      <xdr:row>333</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>531495</xdr:colOff>
-      <xdr:row>330</xdr:row>
+      <xdr:row>333</xdr:row>
       <xdr:rowOff>505460</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14578,13 +14693,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>333</xdr:row>
+      <xdr:row>336</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>468630</xdr:colOff>
-      <xdr:row>333</xdr:row>
+      <xdr:row>336</xdr:row>
       <xdr:rowOff>503555</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14622,13 +14737,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>334</xdr:row>
+      <xdr:row>337</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>334</xdr:row>
+      <xdr:row>337</xdr:row>
       <xdr:rowOff>503555</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14666,13 +14781,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>328</xdr:row>
+      <xdr:row>331</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>638208</xdr:colOff>
-      <xdr:row>328</xdr:row>
+      <xdr:row>331</xdr:row>
       <xdr:rowOff>457223</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14710,13 +14825,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>329</xdr:row>
+      <xdr:row>332</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>295290</xdr:colOff>
-      <xdr:row>329</xdr:row>
+      <xdr:row>332</xdr:row>
       <xdr:rowOff>514376</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14754,13 +14869,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>331</xdr:row>
+      <xdr:row>334</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>504851</xdr:colOff>
-      <xdr:row>331</xdr:row>
+      <xdr:row>334</xdr:row>
       <xdr:rowOff>542953</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14798,13 +14913,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>332</xdr:row>
+      <xdr:row>335</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>600106</xdr:colOff>
-      <xdr:row>332</xdr:row>
+      <xdr:row>335</xdr:row>
       <xdr:rowOff>581055</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -14830,6 +14945,690 @@
         <a:xfrm>
           <a:off x="0" y="419500050"/>
           <a:ext cx="596931" cy="577880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="582295" cy="582930"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="335" name="image17.jpeg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32C3437B-5AEA-4397-98BA-E4B794915798}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId234" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="401764500"/>
+          <a:ext cx="582295" cy="582930"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="97790" cy="583565"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="336" name="image18.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2BA0822-95B0-4E57-87FD-298C1243190A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId235" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="403031325"/>
+          <a:ext cx="97790" cy="583565"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="255270" cy="599440"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="337" name="image19.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{927C2426-970E-4989-88EF-46CF7984D01E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId236" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="404298150"/>
+          <a:ext cx="255270" cy="599440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="354330" cy="588010"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="338" name="image20.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{213C00EB-DA8E-4016-9FC5-DAB48C16D148}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId237" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="405564975"/>
+          <a:ext cx="354330" cy="588010"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>338</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>640715</xdr:colOff>
+      <xdr:row>338</xdr:row>
+      <xdr:rowOff>521970</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="275" name="image176.jpeg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{243B7C2F-50C1-4628-B500-39255E09CE66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId255" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="180975"/>
+          <a:ext cx="640715" cy="521970"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>339</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>639445</xdr:colOff>
+      <xdr:row>339</xdr:row>
+      <xdr:rowOff>645795</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="339" name="image177.jpeg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83C385BC-B57C-4508-80FC-8A5A53A8D384}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId256" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1447800"/>
+          <a:ext cx="639445" cy="645795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>340</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>525145</xdr:colOff>
+      <xdr:row>340</xdr:row>
+      <xdr:rowOff>644525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="340" name="image178.jpeg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEAF89BB-689D-4CDB-8869-480165C80C61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId257" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2714625"/>
+          <a:ext cx="525145" cy="644525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>341</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>639445</xdr:colOff>
+      <xdr:row>341</xdr:row>
+      <xdr:rowOff>389890</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="341" name="image179.jpeg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B019B279-A498-4B17-B383-B798192C8C94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId258" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3981450"/>
+          <a:ext cx="639445" cy="389890"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>342</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>487045</xdr:colOff>
+      <xdr:row>342</xdr:row>
+      <xdr:rowOff>354330</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="342" name="image180.jpeg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA0EA7D8-D65A-4A45-9AEF-7CFF51E2C499}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId259" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5248275"/>
+          <a:ext cx="487045" cy="354330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>343</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638810</xdr:colOff>
+      <xdr:row>343</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="343" name="image181.jpeg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AFEF916-521F-4368-880A-89F71B6DF0A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId260" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6515100"/>
+          <a:ext cx="638810" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>344</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>636270</xdr:colOff>
+      <xdr:row>344</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="344" name="image182.jpeg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EE3ACBE-9902-442E-8DBC-E2165FED8786}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId261" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7781925"/>
+          <a:ext cx="636270" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>345</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>370840</xdr:colOff>
+      <xdr:row>345</xdr:row>
+      <xdr:rowOff>445770</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="345" name="image183.jpeg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BE65475-23BB-4622-AA4E-24A67AEAB4C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId262" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9048750"/>
+          <a:ext cx="370840" cy="445770"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>346</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>619760</xdr:colOff>
+      <xdr:row>346</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="346" name="image184.jpeg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3D22075-2FB1-48F7-8B93-4AC0DCA95E3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId263" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10315575"/>
+          <a:ext cx="619760" cy="68580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>347</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>570865</xdr:colOff>
+      <xdr:row>347</xdr:row>
+      <xdr:rowOff>277495</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="347" name="image185.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4791B7CC-F0FF-4B40-BD3B-C6449D6973F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId264" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11582400"/>
+          <a:ext cx="570865" cy="277495"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>617220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="348" name="image186.jpeg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB40187D-4CB8-4A08-9BCD-6C958FBB5B4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId265" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12849225"/>
+          <a:ext cx="457200" cy="617220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>582930</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="349" name="image187.jpeg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D34D909-DAB0-463B-BE80-801DA724F7A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId266" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14116050"/>
+          <a:ext cx="582930" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15162,11 +15961,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389EF2A0-4911-40ED-9A83-69BD96AFD83C}">
-  <dimension ref="A1:G335"/>
+  <dimension ref="A1:H394"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A336" sqref="A336"/>
+      <pane ySplit="1" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A395" sqref="A395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.81640625" defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -15177,10 +15976,11 @@
     <col min="5" max="5" width="49" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.08984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="50.81640625" style="3"/>
+    <col min="8" max="8" width="12.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="50.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -15202,8 +16002,11 @@
       <c r="G1" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -15222,8 +16025,11 @@
       <c r="G2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -15242,8 +16048,11 @@
       <c r="G3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -15262,8 +16071,11 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H4" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -15282,8 +16094,11 @@
       <c r="G5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H5" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -15302,8 +16117,11 @@
       <c r="G6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -15322,8 +16140,11 @@
       <c r="G7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H7" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -15342,8 +16163,11 @@
       <c r="G8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H8" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
@@ -15362,8 +16186,11 @@
       <c r="G9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
@@ -15382,8 +16209,11 @@
       <c r="G10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H10" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
@@ -15402,8 +16232,11 @@
       <c r="G11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H11" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
@@ -15422,8 +16255,11 @@
       <c r="G12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H12" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
@@ -15442,8 +16278,11 @@
       <c r="G13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H13" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
@@ -15462,8 +16301,11 @@
       <c r="G14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H14" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
@@ -15482,8 +16324,11 @@
       <c r="G15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H15" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
@@ -15502,8 +16347,11 @@
       <c r="G16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H16" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
@@ -15522,8 +16370,11 @@
       <c r="G17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H17" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
@@ -15542,8 +16393,11 @@
       <c r="G18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H18" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
@@ -15562,8 +16416,11 @@
       <c r="G19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H19" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
@@ -15582,8 +16439,11 @@
       <c r="G20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H20" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
@@ -15602,8 +16462,11 @@
       <c r="G21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H21" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>6</v>
       </c>
@@ -15622,8 +16485,11 @@
       <c r="G22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H22" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>6</v>
       </c>
@@ -15642,8 +16508,11 @@
       <c r="G23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H23" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
@@ -15662,8 +16531,11 @@
       <c r="G24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H24" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>6</v>
       </c>
@@ -15682,8 +16554,11 @@
       <c r="G25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H25" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
@@ -15702,8 +16577,11 @@
       <c r="G26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H26" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
         <v>6</v>
       </c>
@@ -15722,8 +16600,11 @@
       <c r="G27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H27" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
@@ -15742,8 +16623,11 @@
       <c r="G28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H28" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
         <v>6</v>
       </c>
@@ -15762,8 +16646,11 @@
       <c r="G29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H29" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
@@ -15782,8 +16669,11 @@
       <c r="G30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H30" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
         <v>6</v>
       </c>
@@ -15802,8 +16692,11 @@
       <c r="G31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H31" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
         <v>6</v>
       </c>
@@ -15822,8 +16715,11 @@
       <c r="G32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H32" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
@@ -15842,8 +16738,11 @@
       <c r="G33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H33" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
         <v>6</v>
       </c>
@@ -15862,8 +16761,11 @@
       <c r="G34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H34" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
         <v>6</v>
       </c>
@@ -15882,8 +16784,11 @@
       <c r="G35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H35" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
         <v>6</v>
       </c>
@@ -15902,8 +16807,11 @@
       <c r="G36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H36" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
         <v>6</v>
       </c>
@@ -15922,8 +16830,11 @@
       <c r="G37" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H37" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
         <v>6</v>
       </c>
@@ -15942,8 +16853,11 @@
       <c r="G38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H38" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
@@ -15962,8 +16876,11 @@
       <c r="G39" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H39" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
         <v>6</v>
       </c>
@@ -15982,8 +16899,11 @@
       <c r="G40" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H40" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
         <v>6</v>
       </c>
@@ -16002,8 +16922,11 @@
       <c r="G41" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H41" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="s">
         <v>6</v>
       </c>
@@ -16022,8 +16945,11 @@
       <c r="G42" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H42" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
         <v>6</v>
       </c>
@@ -16042,8 +16968,11 @@
       <c r="G43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H43" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="1" t="s">
         <v>6</v>
       </c>
@@ -16062,8 +16991,11 @@
       <c r="G44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H44" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="1" t="s">
         <v>6</v>
       </c>
@@ -16082,8 +17014,11 @@
       <c r="G45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H45" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="1" t="s">
         <v>6</v>
       </c>
@@ -16102,8 +17037,11 @@
       <c r="G46" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H46" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="1" t="s">
         <v>6</v>
       </c>
@@ -16122,8 +17060,11 @@
       <c r="G47" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H47" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="1" t="s">
         <v>6</v>
       </c>
@@ -16142,8 +17083,11 @@
       <c r="G48" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H48" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="1" t="s">
         <v>6</v>
       </c>
@@ -16162,8 +17106,11 @@
       <c r="G49" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H49" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="1" t="s">
         <v>6</v>
       </c>
@@ -16182,8 +17129,11 @@
       <c r="G50" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H50" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="1" t="s">
         <v>6</v>
       </c>
@@ -16202,8 +17152,11 @@
       <c r="G51" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H51" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="1" t="s">
         <v>6</v>
       </c>
@@ -16222,8 +17175,11 @@
       <c r="G52" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H52" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="1" t="s">
         <v>6</v>
       </c>
@@ -16242,8 +17198,11 @@
       <c r="G53" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H53" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="1" t="s">
         <v>6</v>
       </c>
@@ -16262,8 +17221,11 @@
       <c r="G54" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H54" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="1" t="s">
         <v>6</v>
       </c>
@@ -16282,8 +17244,11 @@
       <c r="G55" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H55" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="1" t="s">
         <v>6</v>
       </c>
@@ -16302,8 +17267,11 @@
       <c r="G56" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H56" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="1" t="s">
         <v>6</v>
       </c>
@@ -16322,8 +17290,11 @@
       <c r="G57" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H57" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="1" t="s">
         <v>6</v>
       </c>
@@ -16342,8 +17313,11 @@
       <c r="G58" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H58" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="1" t="s">
         <v>6</v>
       </c>
@@ -16362,8 +17336,11 @@
       <c r="G59" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H59" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="1" t="s">
         <v>6</v>
       </c>
@@ -16382,8 +17359,11 @@
       <c r="G60" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H60" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="1" t="s">
         <v>6</v>
       </c>
@@ -16402,8 +17382,11 @@
       <c r="G61" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H61" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="1" t="s">
         <v>6</v>
       </c>
@@ -16422,8 +17405,11 @@
       <c r="G62" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H62" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="1" t="s">
         <v>6</v>
       </c>
@@ -16442,8 +17428,11 @@
       <c r="G63" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H63" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="1" t="s">
         <v>6</v>
       </c>
@@ -16462,8 +17451,11 @@
       <c r="G64" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H64" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="1" t="s">
         <v>6</v>
       </c>
@@ -16482,8 +17474,11 @@
       <c r="G65" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H65" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="1" t="s">
         <v>6</v>
       </c>
@@ -16502,8 +17497,11 @@
       <c r="G66" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H66" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="1" t="s">
         <v>6</v>
       </c>
@@ -16522,8 +17520,11 @@
       <c r="G67" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H67" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="1" t="s">
         <v>6</v>
       </c>
@@ -16542,8 +17543,11 @@
       <c r="G68" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H68" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="1" t="s">
         <v>6</v>
       </c>
@@ -16562,8 +17566,11 @@
       <c r="G69" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H69" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="1" t="s">
         <v>6</v>
       </c>
@@ -16582,8 +17589,11 @@
       <c r="G70" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H70" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="1" t="s">
         <v>6</v>
       </c>
@@ -16602,8 +17612,11 @@
       <c r="G71" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H71" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="1" t="s">
         <v>6</v>
       </c>
@@ -16622,8 +17635,11 @@
       <c r="G72" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H72" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="1" t="s">
         <v>6</v>
       </c>
@@ -16642,8 +17658,11 @@
       <c r="G73" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H73" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="1" t="s">
         <v>6</v>
       </c>
@@ -16662,8 +17681,11 @@
       <c r="G74" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H74" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="1" t="s">
         <v>6</v>
       </c>
@@ -16682,8 +17704,11 @@
       <c r="G75" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H75" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="1" t="s">
         <v>6</v>
       </c>
@@ -16702,8 +17727,11 @@
       <c r="G76" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H76" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="1" t="s">
         <v>6</v>
       </c>
@@ -16722,8 +17750,11 @@
       <c r="G77" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H77" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="1" t="s">
         <v>6</v>
       </c>
@@ -16742,8 +17773,11 @@
       <c r="G78" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H78" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="1" t="s">
         <v>6</v>
       </c>
@@ -16762,8 +17796,11 @@
       <c r="G79" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H79" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="1" t="s">
         <v>6</v>
       </c>
@@ -16782,8 +17819,11 @@
       <c r="G80" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H80" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="1" t="s">
         <v>6</v>
       </c>
@@ -16802,8 +17842,11 @@
       <c r="G81" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H81" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="1" t="s">
         <v>6</v>
       </c>
@@ -16822,8 +17865,11 @@
       <c r="G82" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H82" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="1" t="s">
         <v>6</v>
       </c>
@@ -16842,8 +17888,11 @@
       <c r="G83" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H83" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="1" t="s">
         <v>6</v>
       </c>
@@ -16862,8 +17911,11 @@
       <c r="G84" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H84" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="1" t="s">
         <v>6</v>
       </c>
@@ -16882,8 +17934,11 @@
       <c r="G85" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H85" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="1" t="s">
         <v>6</v>
       </c>
@@ -16902,8 +17957,11 @@
       <c r="G86" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H86" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="1" t="s">
         <v>6</v>
       </c>
@@ -16922,8 +17980,11 @@
       <c r="G87" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H87" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="1" t="s">
         <v>6</v>
       </c>
@@ -16942,8 +18003,11 @@
       <c r="G88" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H88" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="1" t="s">
         <v>6</v>
       </c>
@@ -16962,8 +18026,11 @@
       <c r="G89" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H89" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="1" t="s">
         <v>6</v>
       </c>
@@ -16982,8 +18049,11 @@
       <c r="G90" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H90" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="1" t="s">
         <v>6</v>
       </c>
@@ -17002,8 +18072,11 @@
       <c r="G91" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H91" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="1" t="s">
         <v>6</v>
       </c>
@@ -17022,8 +18095,11 @@
       <c r="G92" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H92" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="1" t="s">
         <v>6</v>
       </c>
@@ -17042,8 +18118,11 @@
       <c r="G93" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H93" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="1" t="s">
         <v>6</v>
       </c>
@@ -17062,8 +18141,11 @@
       <c r="G94" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H94" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="1" t="s">
         <v>6</v>
       </c>
@@ -17082,8 +18164,11 @@
       <c r="G95" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H95" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="1" t="s">
         <v>6</v>
       </c>
@@ -17102,8 +18187,11 @@
       <c r="G96" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H96" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="1" t="s">
         <v>6</v>
       </c>
@@ -17122,8 +18210,11 @@
       <c r="G97" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H97" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="1" t="s">
         <v>6</v>
       </c>
@@ -17142,8 +18233,11 @@
       <c r="G98" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H98" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="1" t="s">
         <v>6</v>
       </c>
@@ -17162,8 +18256,11 @@
       <c r="G99" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H99" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="1" t="s">
         <v>6</v>
       </c>
@@ -17182,8 +18279,11 @@
       <c r="G100" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H100" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="1" t="s">
         <v>6</v>
       </c>
@@ -17202,8 +18302,11 @@
       <c r="G101" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H101" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="1" t="s">
         <v>6</v>
       </c>
@@ -17222,8 +18325,11 @@
       <c r="G102" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H102" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="1" t="s">
         <v>6</v>
       </c>
@@ -17242,8 +18348,11 @@
       <c r="G103" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H103" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="1" t="s">
         <v>6</v>
       </c>
@@ -17262,8 +18371,11 @@
       <c r="G104" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H104" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="1" t="s">
         <v>6</v>
       </c>
@@ -17282,8 +18394,11 @@
       <c r="G105" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H105" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="1" t="s">
         <v>6</v>
       </c>
@@ -17302,8 +18417,11 @@
       <c r="G106" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H106" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="1" t="s">
         <v>6</v>
       </c>
@@ -17322,8 +18440,11 @@
       <c r="G107" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H107" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="1" t="s">
         <v>6</v>
       </c>
@@ -17342,8 +18463,11 @@
       <c r="G108" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H108" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="1" t="s">
         <v>6</v>
       </c>
@@ -17362,8 +18486,11 @@
       <c r="G109" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H109" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="1" t="s">
         <v>6</v>
       </c>
@@ -17382,8 +18509,11 @@
       <c r="G110" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H110" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="1" t="s">
         <v>6</v>
       </c>
@@ -17402,8 +18532,11 @@
       <c r="G111" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H111" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="1" t="s">
         <v>6</v>
       </c>
@@ -17422,8 +18555,11 @@
       <c r="G112" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H112" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="1" t="s">
         <v>6</v>
       </c>
@@ -17442,8 +18578,11 @@
       <c r="G113" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H113" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="1" t="s">
         <v>6</v>
       </c>
@@ -17462,8 +18601,11 @@
       <c r="G114" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H114" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="1" t="s">
         <v>6</v>
       </c>
@@ -17482,8 +18624,11 @@
       <c r="G115" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H115" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="1" t="s">
         <v>6</v>
       </c>
@@ -17502,8 +18647,11 @@
       <c r="G116" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H116" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="1" t="s">
         <v>6</v>
       </c>
@@ -17522,8 +18670,11 @@
       <c r="G117" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H117" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="1" t="s">
         <v>6</v>
       </c>
@@ -17542,8 +18693,11 @@
       <c r="G118" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H118" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="1" t="s">
         <v>6</v>
       </c>
@@ -17562,8 +18716,11 @@
       <c r="G119" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H119" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="1" t="s">
         <v>6</v>
       </c>
@@ -17582,8 +18739,11 @@
       <c r="G120" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H120" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="1" t="s">
         <v>6</v>
       </c>
@@ -17602,8 +18762,11 @@
       <c r="G121" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H121" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="1" t="s">
         <v>6</v>
       </c>
@@ -17622,8 +18785,11 @@
       <c r="G122" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H122" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="1" t="s">
         <v>6</v>
       </c>
@@ -17642,8 +18808,11 @@
       <c r="G123" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H123" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="1" t="s">
         <v>6</v>
       </c>
@@ -17662,8 +18831,11 @@
       <c r="G124" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H124" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="1" t="s">
         <v>6</v>
       </c>
@@ -17682,8 +18854,11 @@
       <c r="G125" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H125" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="1" t="s">
         <v>6</v>
       </c>
@@ -17702,8 +18877,11 @@
       <c r="G126" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H126" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="1" t="s">
         <v>6</v>
       </c>
@@ -17722,8 +18900,11 @@
       <c r="G127" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H127" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="1" t="s">
         <v>6</v>
       </c>
@@ -17742,8 +18923,11 @@
       <c r="G128" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H128" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="1" t="s">
         <v>6</v>
       </c>
@@ -17762,8 +18946,11 @@
       <c r="G129" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H129" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="1" t="s">
         <v>6</v>
       </c>
@@ -17782,8 +18969,11 @@
       <c r="G130" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H130" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="1" t="s">
         <v>6</v>
       </c>
@@ -17802,8 +18992,11 @@
       <c r="G131" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H131" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="1" t="s">
         <v>6</v>
       </c>
@@ -17822,8 +19015,11 @@
       <c r="G132" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H132" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="1" t="s">
         <v>6</v>
       </c>
@@ -17842,8 +19038,11 @@
       <c r="G133" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H133" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="1" t="s">
         <v>6</v>
       </c>
@@ -17862,8 +19061,11 @@
       <c r="G134" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H134" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="1" t="s">
         <v>6</v>
       </c>
@@ -17882,8 +19084,11 @@
       <c r="G135" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H135" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="1" t="s">
         <v>6</v>
       </c>
@@ -17902,8 +19107,11 @@
       <c r="G136" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H136" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="1" t="s">
         <v>6</v>
       </c>
@@ -17922,8 +19130,11 @@
       <c r="G137" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H137" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="1" t="s">
         <v>6</v>
       </c>
@@ -17942,8 +19153,11 @@
       <c r="G138" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H138" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="1" t="s">
         <v>6</v>
       </c>
@@ -17962,8 +19176,11 @@
       <c r="G139" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H139" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="1" t="s">
         <v>6</v>
       </c>
@@ -17982,8 +19199,11 @@
       <c r="G140" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H140" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="1" t="s">
         <v>6</v>
       </c>
@@ -18002,8 +19222,11 @@
       <c r="G141" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H141" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="1" t="s">
         <v>6</v>
       </c>
@@ -18022,8 +19245,11 @@
       <c r="G142" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H142" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="1" t="s">
         <v>6</v>
       </c>
@@ -18042,8 +19268,11 @@
       <c r="G143" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H143" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="1" t="s">
         <v>6</v>
       </c>
@@ -18062,8 +19291,11 @@
       <c r="G144" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H144" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="1" t="s">
         <v>6</v>
       </c>
@@ -18082,8 +19314,11 @@
       <c r="G145" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H145" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="1" t="s">
         <v>6</v>
       </c>
@@ -18102,8 +19337,11 @@
       <c r="G146" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H146" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="1" t="s">
         <v>6</v>
       </c>
@@ -18122,8 +19360,11 @@
       <c r="G147" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H147" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="1" t="s">
         <v>6</v>
       </c>
@@ -18142,8 +19383,11 @@
       <c r="G148" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H148" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="1" t="s">
         <v>6</v>
       </c>
@@ -18162,8 +19406,11 @@
       <c r="G149" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H149" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="1" t="s">
         <v>6</v>
       </c>
@@ -18182,8 +19429,11 @@
       <c r="G150" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H150" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="1" t="s">
         <v>6</v>
       </c>
@@ -18202,8 +19452,11 @@
       <c r="G151" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H151" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="1" t="s">
         <v>6</v>
       </c>
@@ -18222,8 +19475,11 @@
       <c r="G152" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H152" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="1" t="s">
         <v>6</v>
       </c>
@@ -18242,8 +19498,11 @@
       <c r="G153" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H153" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="1" t="s">
         <v>6</v>
       </c>
@@ -18262,8 +19521,11 @@
       <c r="G154" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H154" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="1" t="s">
         <v>6</v>
       </c>
@@ -18282,8 +19544,11 @@
       <c r="G155" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H155" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="1" t="s">
         <v>6</v>
       </c>
@@ -18302,8 +19567,11 @@
       <c r="G156" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H156" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="1" t="s">
         <v>6</v>
       </c>
@@ -18322,8 +19590,11 @@
       <c r="G157" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H157" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="1" t="s">
         <v>6</v>
       </c>
@@ -18342,8 +19613,11 @@
       <c r="G158" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H158" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="1" t="s">
         <v>6</v>
       </c>
@@ -18362,8 +19636,11 @@
       <c r="G159" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H159" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="1" t="s">
         <v>6</v>
       </c>
@@ -18382,8 +19659,11 @@
       <c r="G160" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H160" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="1" t="s">
         <v>6</v>
       </c>
@@ -18402,8 +19682,11 @@
       <c r="G161" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H161" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="1" t="s">
         <v>6</v>
       </c>
@@ -18422,8 +19705,11 @@
       <c r="G162" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H162" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="1" t="s">
         <v>6</v>
       </c>
@@ -18442,8 +19728,11 @@
       <c r="G163" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H163" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="1" t="s">
         <v>6</v>
       </c>
@@ -18462,8 +19751,11 @@
       <c r="G164" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H164" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="1" t="s">
         <v>6</v>
       </c>
@@ -18482,8 +19774,11 @@
       <c r="G165" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H165" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="1" t="s">
         <v>6</v>
       </c>
@@ -18502,8 +19797,11 @@
       <c r="G166" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H166" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="1" t="s">
         <v>6</v>
       </c>
@@ -18522,8 +19820,11 @@
       <c r="G167" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H167" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B168" s="1" t="s">
         <v>6</v>
       </c>
@@ -18542,8 +19843,11 @@
       <c r="G168" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H168" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B169" s="1" t="s">
         <v>6</v>
       </c>
@@ -18562,8 +19866,11 @@
       <c r="G169" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H169" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B170" s="1" t="s">
         <v>6</v>
       </c>
@@ -18582,8 +19889,11 @@
       <c r="G170" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H170" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B171" s="1" t="s">
         <v>6</v>
       </c>
@@ -18602,8 +19912,11 @@
       <c r="G171" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H171" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B172" s="1" t="s">
         <v>6</v>
       </c>
@@ -18622,8 +19935,11 @@
       <c r="G172" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H172" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B173" s="1" t="s">
         <v>6</v>
       </c>
@@ -18642,8 +19958,11 @@
       <c r="G173" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H173" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B174" s="1" t="s">
         <v>6</v>
       </c>
@@ -18662,8 +19981,11 @@
       <c r="G174" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H174" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B175" s="1" t="s">
         <v>6</v>
       </c>
@@ -18682,8 +20004,11 @@
       <c r="G175" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H175" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B176" s="1" t="s">
         <v>6</v>
       </c>
@@ -18702,8 +20027,11 @@
       <c r="G176" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H176" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B177" s="1" t="s">
         <v>6</v>
       </c>
@@ -18722,8 +20050,11 @@
       <c r="G177" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H177" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B178" s="1" t="s">
         <v>6</v>
       </c>
@@ -18742,8 +20073,11 @@
       <c r="G178" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H178" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B179" s="1" t="s">
         <v>6</v>
       </c>
@@ -18762,8 +20096,11 @@
       <c r="G179" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H179" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B180" s="1" t="s">
         <v>6</v>
       </c>
@@ -18782,8 +20119,11 @@
       <c r="G180" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H180" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B181" s="1" t="s">
         <v>6</v>
       </c>
@@ -18802,8 +20142,11 @@
       <c r="G181" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H181" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B182" s="1" t="s">
         <v>6</v>
       </c>
@@ -18822,8 +20165,11 @@
       <c r="G182" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H182" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B183" s="1" t="s">
         <v>6</v>
       </c>
@@ -18842,8 +20188,11 @@
       <c r="G183" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H183" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B184" s="1" t="s">
         <v>6</v>
       </c>
@@ -18862,8 +20211,11 @@
       <c r="G184" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H184" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B185" s="1" t="s">
         <v>6</v>
       </c>
@@ -18882,8 +20234,11 @@
       <c r="G185" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H185" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B186" s="1" t="s">
         <v>6</v>
       </c>
@@ -18902,8 +20257,11 @@
       <c r="G186" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H186" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B187" s="1" t="s">
         <v>6</v>
       </c>
@@ -18922,8 +20280,11 @@
       <c r="G187" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H187" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B188" s="1" t="s">
         <v>6</v>
       </c>
@@ -18942,8 +20303,11 @@
       <c r="G188" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H188" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B189" s="1" t="s">
         <v>6</v>
       </c>
@@ -18962,8 +20326,11 @@
       <c r="G189" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H189" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B190" s="1" t="s">
         <v>6</v>
       </c>
@@ -18982,8 +20349,11 @@
       <c r="G190" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H190" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B191" s="1" t="s">
         <v>6</v>
       </c>
@@ -19002,8 +20372,11 @@
       <c r="G191" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H191" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B192" s="1" t="s">
         <v>6</v>
       </c>
@@ -19022,8 +20395,11 @@
       <c r="G192" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H192" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B193" s="1" t="s">
         <v>6</v>
       </c>
@@ -19042,8 +20418,11 @@
       <c r="G193" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H193" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B194" s="1" t="s">
         <v>6</v>
       </c>
@@ -19062,8 +20441,11 @@
       <c r="G194" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H194" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B195" s="1" t="s">
         <v>6</v>
       </c>
@@ -19082,8 +20464,11 @@
       <c r="G195" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H195" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B196" s="1" t="s">
         <v>6</v>
       </c>
@@ -19102,8 +20487,11 @@
       <c r="G196" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H196" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B197" s="1" t="s">
         <v>6</v>
       </c>
@@ -19122,8 +20510,11 @@
       <c r="G197" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H197" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B198" s="1" t="s">
         <v>6</v>
       </c>
@@ -19142,8 +20533,11 @@
       <c r="G198" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H198" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B199" s="1" t="s">
         <v>6</v>
       </c>
@@ -19162,8 +20556,11 @@
       <c r="G199" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H199" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B200" s="1" t="s">
         <v>6</v>
       </c>
@@ -19182,8 +20579,11 @@
       <c r="G200" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H200" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="201" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B201" s="1" t="s">
         <v>6</v>
       </c>
@@ -19202,8 +20602,11 @@
       <c r="G201" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H201" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="202" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B202" s="1" t="s">
         <v>6</v>
       </c>
@@ -19222,8 +20625,11 @@
       <c r="G202" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H202" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="203" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B203" s="1" t="s">
         <v>6</v>
       </c>
@@ -19242,8 +20648,11 @@
       <c r="G203" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H203" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B204" s="1" t="s">
         <v>6</v>
       </c>
@@ -19262,8 +20671,11 @@
       <c r="G204" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H204" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B205" s="1" t="s">
         <v>6</v>
       </c>
@@ -19282,8 +20694,11 @@
       <c r="G205" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H205" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="206" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B206" s="1" t="s">
         <v>6</v>
       </c>
@@ -19302,8 +20717,11 @@
       <c r="G206" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H206" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="207" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B207" s="1" t="s">
         <v>6</v>
       </c>
@@ -19322,8 +20740,11 @@
       <c r="G207" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H207" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="208" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B208" s="1" t="s">
         <v>6</v>
       </c>
@@ -19342,8 +20763,11 @@
       <c r="G208" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H208" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="209" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B209" s="1" t="s">
         <v>6</v>
       </c>
@@ -19362,8 +20786,11 @@
       <c r="G209" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H209" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B210" s="1" t="s">
         <v>6</v>
       </c>
@@ -19382,8 +20809,11 @@
       <c r="G210" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H210" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B211" s="1" t="s">
         <v>6</v>
       </c>
@@ -19402,8 +20832,11 @@
       <c r="G211" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H211" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B212" s="1" t="s">
         <v>6</v>
       </c>
@@ -19422,8 +20855,11 @@
       <c r="G212" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H212" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B213" s="1" t="s">
         <v>6</v>
       </c>
@@ -19442,8 +20878,11 @@
       <c r="G213" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H213" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B214" s="1" t="s">
         <v>6</v>
       </c>
@@ -19462,8 +20901,11 @@
       <c r="G214" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H214" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="215" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B215" s="1" t="s">
         <v>6</v>
       </c>
@@ -19482,8 +20924,11 @@
       <c r="G215" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H215" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="216" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B216" s="1" t="s">
         <v>6</v>
       </c>
@@ -19502,8 +20947,11 @@
       <c r="G216" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H216" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="217" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B217" s="1" t="s">
         <v>6</v>
       </c>
@@ -19522,8 +20970,11 @@
       <c r="G217" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H217" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B218" s="1" t="s">
         <v>6</v>
       </c>
@@ -19542,8 +20993,11 @@
       <c r="G218" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H218" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="219" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B219" s="1" t="s">
         <v>6</v>
       </c>
@@ -19562,8 +21016,11 @@
       <c r="G219" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H219" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="220" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B220" s="1" t="s">
         <v>6</v>
       </c>
@@ -19582,8 +21039,11 @@
       <c r="G220" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H220" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="221" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B221" s="1" t="s">
         <v>57</v>
       </c>
@@ -19602,8 +21062,11 @@
       <c r="G221" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H221" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="222" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B222" s="1" t="s">
         <v>57</v>
       </c>
@@ -19622,8 +21085,11 @@
       <c r="G222" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H222" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="223" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B223" s="1" t="s">
         <v>57</v>
       </c>
@@ -19642,8 +21108,11 @@
       <c r="G223" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H223" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="224" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B224" s="1" t="s">
         <v>57</v>
       </c>
@@ -19662,8 +21131,11 @@
       <c r="G224" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H224" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="225" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B225" s="1" t="s">
         <v>57</v>
       </c>
@@ -19682,8 +21154,11 @@
       <c r="G225" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H225" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="226" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B226" s="1" t="s">
         <v>57</v>
       </c>
@@ -19702,8 +21177,11 @@
       <c r="G226" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H226" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="227" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B227" s="1" t="s">
         <v>57</v>
       </c>
@@ -19722,8 +21200,11 @@
       <c r="G227" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H227" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="228" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B228" s="1" t="s">
         <v>57</v>
       </c>
@@ -19742,8 +21223,11 @@
       <c r="G228" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H228" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="229" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B229" s="1" t="s">
         <v>57</v>
       </c>
@@ -19762,8 +21246,11 @@
       <c r="G229" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H229" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="230" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B230" s="1" t="s">
         <v>57</v>
       </c>
@@ -19782,8 +21269,11 @@
       <c r="G230" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H230" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="231" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B231" s="1" t="s">
         <v>57</v>
       </c>
@@ -19802,8 +21292,11 @@
       <c r="G231" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H231" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="232" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B232" s="1" t="s">
         <v>57</v>
       </c>
@@ -19822,8 +21315,11 @@
       <c r="G232" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H232" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="233" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B233" s="1" t="s">
         <v>57</v>
       </c>
@@ -19842,8 +21338,11 @@
       <c r="G233" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H233" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="234" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B234" s="1" t="s">
         <v>57</v>
       </c>
@@ -19862,8 +21361,11 @@
       <c r="G234" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H234" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="235" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B235" s="1" t="s">
         <v>57</v>
       </c>
@@ -19882,8 +21384,11 @@
       <c r="G235" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H235" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="236" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B236" s="1" t="s">
         <v>57</v>
       </c>
@@ -19902,8 +21407,11 @@
       <c r="G236" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H236" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="237" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B237" s="1" t="s">
         <v>58</v>
       </c>
@@ -19917,13 +21425,16 @@
         <v>0</v>
       </c>
       <c r="F237" s="1">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="G237" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H237" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="238" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B238" s="1" t="s">
         <v>58</v>
       </c>
@@ -19937,13 +21448,16 @@
         <v>0</v>
       </c>
       <c r="F238" s="1">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="G238" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H238" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="239" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B239" s="1" t="s">
         <v>58</v>
       </c>
@@ -19957,13 +21471,16 @@
         <v>0</v>
       </c>
       <c r="F239" s="1">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="G239" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H239" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="240" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B240" s="1" t="s">
         <v>58</v>
       </c>
@@ -19977,13 +21494,16 @@
         <v>0</v>
       </c>
       <c r="F240" s="1">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="G240" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H240" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="241" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B241" s="1" t="s">
         <v>58</v>
       </c>
@@ -19997,13 +21517,16 @@
         <v>0</v>
       </c>
       <c r="F241" s="1">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="G241" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H241" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="242" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B242" s="1" t="s">
         <v>58</v>
       </c>
@@ -20017,13 +21540,16 @@
         <v>0</v>
       </c>
       <c r="F242" s="1">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="G242" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H242" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="243" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B243" s="1" t="s">
         <v>58</v>
       </c>
@@ -20037,13 +21563,16 @@
         <v>0</v>
       </c>
       <c r="F243" s="1">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="G243" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H243" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="244" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B244" s="1" t="s">
         <v>58</v>
       </c>
@@ -20057,13 +21586,16 @@
         <v>0</v>
       </c>
       <c r="F244" s="1">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="G244" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H244" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="245" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B245" s="1" t="s">
         <v>58</v>
       </c>
@@ -20077,13 +21609,16 @@
         <v>0</v>
       </c>
       <c r="F245" s="1">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="G245" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H245" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="246" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B246" s="1" t="s">
         <v>58</v>
       </c>
@@ -20097,13 +21632,16 @@
         <v>0</v>
       </c>
       <c r="F246" s="1">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="G246" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H246" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="247" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B247" s="1" t="s">
         <v>58</v>
       </c>
@@ -20117,13 +21655,16 @@
         <v>0</v>
       </c>
       <c r="F247" s="1">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="G247" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H247" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="248" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B248" s="1" t="s">
         <v>58</v>
       </c>
@@ -20137,13 +21678,16 @@
         <v>0</v>
       </c>
       <c r="F248" s="1">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="G248" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H248" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="249" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B249" s="1" t="s">
         <v>58</v>
       </c>
@@ -20157,13 +21701,16 @@
         <v>1</v>
       </c>
       <c r="F249" s="1">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G249" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H249" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="250" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B250" s="1" t="s">
         <v>58</v>
       </c>
@@ -20177,13 +21724,16 @@
         <v>1</v>
       </c>
       <c r="F250" s="1">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G250" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H250" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="251" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B251" s="1" t="s">
         <v>58</v>
       </c>
@@ -20197,13 +21747,16 @@
         <v>1</v>
       </c>
       <c r="F251" s="1">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G251" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H251" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="252" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B252" s="1" t="s">
         <v>58</v>
       </c>
@@ -20217,13 +21770,16 @@
         <v>1</v>
       </c>
       <c r="F252" s="1">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G252" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H252" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="253" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B253" s="1" t="s">
         <v>58</v>
       </c>
@@ -20237,13 +21793,16 @@
         <v>88</v>
       </c>
       <c r="F253" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.35</v>
       </c>
       <c r="G253" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H253" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="254" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B254" s="1" t="s">
         <v>58</v>
       </c>
@@ -20257,13 +21816,16 @@
         <v>88</v>
       </c>
       <c r="F254" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.35</v>
       </c>
       <c r="G254" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H254" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="255" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B255" s="1" t="s">
         <v>58</v>
       </c>
@@ -20277,13 +21839,16 @@
         <v>88</v>
       </c>
       <c r="F255" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.35</v>
       </c>
       <c r="G255" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H255" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="256" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B256" s="1" t="s">
         <v>58</v>
       </c>
@@ -20297,13 +21862,16 @@
         <v>88</v>
       </c>
       <c r="F256" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.35</v>
       </c>
       <c r="G256" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H256" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="257" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B257" s="1" t="s">
         <v>59</v>
       </c>
@@ -20317,13 +21885,16 @@
         <v>0</v>
       </c>
       <c r="F257" s="1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G257" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H257" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="258" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B258" s="1" t="s">
         <v>59</v>
       </c>
@@ -20337,13 +21908,16 @@
         <v>0</v>
       </c>
       <c r="F258" s="1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G258" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H258" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="259" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B259" s="1" t="s">
         <v>59</v>
       </c>
@@ -20357,13 +21931,16 @@
         <v>0</v>
       </c>
       <c r="F259" s="1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G259" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H259" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="260" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B260" s="1" t="s">
         <v>59</v>
       </c>
@@ -20377,13 +21954,16 @@
         <v>0</v>
       </c>
       <c r="F260" s="1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G260" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H260" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="261" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B261" s="1" t="s">
         <v>59</v>
       </c>
@@ -20397,13 +21977,16 @@
         <v>0</v>
       </c>
       <c r="F261" s="1">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G261" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H261" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="262" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B262" s="1" t="s">
         <v>59</v>
       </c>
@@ -20417,13 +22000,16 @@
         <v>0</v>
       </c>
       <c r="F262" s="1">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G262" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H262" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="263" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B263" s="1" t="s">
         <v>59</v>
       </c>
@@ -20437,13 +22023,16 @@
         <v>0</v>
       </c>
       <c r="F263" s="1">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G263" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H263" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="264" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B264" s="1" t="s">
         <v>59</v>
       </c>
@@ -20457,13 +22046,16 @@
         <v>0</v>
       </c>
       <c r="F264" s="1">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G264" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H264" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="265" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B265" s="1" t="s">
         <v>59</v>
       </c>
@@ -20477,13 +22069,16 @@
         <v>0</v>
       </c>
       <c r="F265" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G265" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H265" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="266" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B266" s="1" t="s">
         <v>59</v>
       </c>
@@ -20497,13 +22092,16 @@
         <v>0</v>
       </c>
       <c r="F266" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G266" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H266" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="267" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B267" s="1" t="s">
         <v>59</v>
       </c>
@@ -20517,13 +22115,16 @@
         <v>0</v>
       </c>
       <c r="F267" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G267" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H267" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="268" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B268" s="1" t="s">
         <v>59</v>
       </c>
@@ -20537,13 +22138,16 @@
         <v>0</v>
       </c>
       <c r="F268" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G268" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H268" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="269" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B269" s="1" t="s">
         <v>59</v>
       </c>
@@ -20557,13 +22161,16 @@
         <v>1</v>
       </c>
       <c r="F269" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G269" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H269" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="270" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B270" s="1" t="s">
         <v>59</v>
       </c>
@@ -20577,13 +22184,16 @@
         <v>1</v>
       </c>
       <c r="F270" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G270" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H270" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="271" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B271" s="1" t="s">
         <v>59</v>
       </c>
@@ -20597,13 +22207,16 @@
         <v>1</v>
       </c>
       <c r="F271" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G271" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H271" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="272" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B272" s="1" t="s">
         <v>59</v>
       </c>
@@ -20617,13 +22230,16 @@
         <v>1</v>
       </c>
       <c r="F272" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G272" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H272" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="273" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B273" s="1" t="s">
         <v>59</v>
       </c>
@@ -20637,13 +22253,16 @@
         <v>60</v>
       </c>
       <c r="F273" s="1">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="G273" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H273" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="274" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B274" s="1" t="s">
         <v>59</v>
       </c>
@@ -20657,13 +22276,16 @@
         <v>60</v>
       </c>
       <c r="F274" s="1">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="G274" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H274" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="275" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B275" s="1" t="s">
         <v>59</v>
       </c>
@@ -20677,33 +22299,39 @@
         <v>60</v>
       </c>
       <c r="F275" s="1">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="G275" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H275" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="276" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B276" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C276" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F276" s="1">
-        <v>0.15</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G276" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H276" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="277" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B277" s="1" t="s">
         <v>59</v>
       </c>
@@ -20711,19 +22339,22 @@
         <v>6</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F277" s="1">
-        <v>1.1000000000000001</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G277" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H277" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="278" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B278" s="1" t="s">
         <v>59</v>
       </c>
@@ -20731,19 +22362,22 @@
         <v>6</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F278" s="1">
-        <v>1.1000000000000001</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G278" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H278" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="279" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B279" s="1" t="s">
         <v>59</v>
       </c>
@@ -20751,24 +22385,27 @@
         <v>6</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F279" s="1">
-        <v>1.1000000000000001</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G279" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H279" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="280" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B280" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C280" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D280" s="4" t="s">
         <v>64</v>
@@ -20777,13 +22414,16 @@
         <v>88</v>
       </c>
       <c r="F280" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.65</v>
       </c>
       <c r="G280" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H280" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="281" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B281" s="1" t="s">
         <v>59</v>
       </c>
@@ -20791,19 +22431,22 @@
         <v>7</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="F281" s="1">
-        <v>0.05</v>
+        <v>1.65</v>
       </c>
       <c r="G281" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H281" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="282" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B282" s="1" t="s">
         <v>59</v>
       </c>
@@ -20811,19 +22454,22 @@
         <v>7</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="F282" s="1">
-        <v>0.05</v>
+        <v>1.65</v>
       </c>
       <c r="G282" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H282" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="283" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B283" s="1" t="s">
         <v>59</v>
       </c>
@@ -20831,24 +22477,27 @@
         <v>7</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="F283" s="1">
-        <v>0.05</v>
+        <v>1.65</v>
       </c>
       <c r="G283" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H283" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="284" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B284" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C284" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D284" s="4" t="s">
         <v>13</v>
@@ -20857,13 +22506,16 @@
         <v>61</v>
       </c>
       <c r="F284" s="1">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="G284" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H284" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="285" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B285" s="1" t="s">
         <v>59</v>
       </c>
@@ -20871,19 +22523,22 @@
         <v>8</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="F285" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G285" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H285" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="286" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B286" s="1" t="s">
         <v>59</v>
       </c>
@@ -20891,19 +22546,22 @@
         <v>8</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="F286" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G286" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H286" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="287" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B287" s="1" t="s">
         <v>59</v>
       </c>
@@ -20911,24 +22569,27 @@
         <v>8</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="F287" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G287" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H287" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="288" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B288" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C288" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D288" s="4" t="s">
         <v>14</v>
@@ -20937,18 +22598,21 @@
         <v>83</v>
       </c>
       <c r="F288" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G288" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H288" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="289" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B289" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C289" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D289" s="4" t="s">
         <v>14</v>
@@ -20957,18 +22621,21 @@
         <v>83</v>
       </c>
       <c r="F289" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G289" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H289" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="290" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B290" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C290" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D290" s="4" t="s">
         <v>14</v>
@@ -20977,18 +22644,21 @@
         <v>83</v>
       </c>
       <c r="F290" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G290" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H290" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="291" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B291" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C291" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D291" s="4" t="s">
         <v>14</v>
@@ -20997,18 +22667,21 @@
         <v>83</v>
       </c>
       <c r="F291" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G291" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H291" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="292" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B292" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C292" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D292" s="4" t="s">
         <v>14</v>
@@ -21017,64 +22690,85 @@
         <v>83</v>
       </c>
       <c r="F292" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G292" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H292" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="293" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B293" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C293" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E293" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="F293" s="1">
+        <v>0.2</v>
       </c>
       <c r="G293" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H293" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="294" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B294" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C294" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="F294" s="1">
+        <v>0.2</v>
       </c>
       <c r="G294" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H294" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="295" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B295" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C295" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="F295" s="1">
+        <v>0.2</v>
       </c>
       <c r="G295" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H295" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="296" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B296" s="1" t="s">
         <v>62</v>
       </c>
@@ -21090,16 +22784,19 @@
       <c r="G296" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H296" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="297" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B297" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C297" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E297" s="4" t="s">
         <v>0</v>
@@ -21107,16 +22804,19 @@
       <c r="G297" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H297" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="298" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B298" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C298" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E298" s="4" t="s">
         <v>0</v>
@@ -21124,16 +22824,19 @@
       <c r="G298" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H298" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="299" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B299" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C299" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E299" s="4" t="s">
         <v>0</v>
@@ -21141,8 +22844,11 @@
       <c r="G299" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H299" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="300" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B300" s="1" t="s">
         <v>62</v>
       </c>
@@ -21158,16 +22864,19 @@
       <c r="G300" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H300" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="301" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B301" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C301" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E301" s="4" t="s">
         <v>0</v>
@@ -21175,16 +22884,19 @@
       <c r="G301" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H301" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="302" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B302" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C302" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E302" s="4" t="s">
         <v>0</v>
@@ -21192,16 +22904,19 @@
       <c r="G302" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H302" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="303" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B303" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C303" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E303" s="4" t="s">
         <v>0</v>
@@ -21209,8 +22924,11 @@
       <c r="G303" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H303" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="304" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B304" s="1" t="s">
         <v>62</v>
       </c>
@@ -21226,59 +22944,71 @@
       <c r="G304" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H304" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="305" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B305" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C305" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G305" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H305" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="306" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B306" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C306" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G306" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H306" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="307" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B307" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C307" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G307" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H307" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="308" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B308" s="1" t="s">
         <v>62</v>
       </c>
@@ -21294,8 +23024,11 @@
       <c r="G308" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H308" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="309" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B309" s="1" t="s">
         <v>62</v>
       </c>
@@ -21311,59 +23044,71 @@
       <c r="G309" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H309" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="310" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B310" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C310" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="G310" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="311" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H310" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="311" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B311" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C311" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="G311" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="312" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H311" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="312" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B312" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C312" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="G312" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H312" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="313" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B313" s="1" t="s">
         <v>62</v>
       </c>
@@ -21379,8 +23124,11 @@
       <c r="G313" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H313" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="314" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B314" s="1" t="s">
         <v>62</v>
       </c>
@@ -21396,59 +23144,71 @@
       <c r="G314" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H314" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="315" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B315" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C315" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E315" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G315" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H315" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="316" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B316" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C316" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E316" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G316" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="317" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H316" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="317" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B317" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C317" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G317" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H317" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="318" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B318" s="1" t="s">
         <v>62</v>
       </c>
@@ -21464,59 +23224,71 @@
       <c r="G318" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="319" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H318" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="319" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B319" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C319" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G319" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H319" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="320" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B320" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C320" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G320" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="321" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H320" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="321" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B321" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C321" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E321" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G321" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="322" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H321" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="322" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B322" s="1" t="s">
         <v>62</v>
       </c>
@@ -21532,59 +23304,71 @@
       <c r="G322" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="323" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H322" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="323" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B323" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C323" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="E323" s="4" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="G323" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H323" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="324" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B324" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C324" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="E324" s="4" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="G324" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="325" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H324" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="325" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B325" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C325" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="E325" s="4" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="G325" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H325" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="326" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B326" s="1" t="s">
         <v>62</v>
       </c>
@@ -21600,8 +23384,11 @@
       <c r="G326" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H326" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="327" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B327" s="1" t="s">
         <v>62</v>
       </c>
@@ -21617,59 +23404,71 @@
       <c r="G327" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H327" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="328" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B328" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C328" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E328" s="4" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="G328" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H328" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="329" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B329" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C329" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E329" s="4" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="G329" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="330" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H329" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="330" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B330" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C330" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D330" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E330" s="4" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="G330" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="331" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H330" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="331" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B331" s="1" t="s">
         <v>62</v>
       </c>
@@ -21685,8 +23484,11 @@
       <c r="G331" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="332" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H331" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="332" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B332" s="1" t="s">
         <v>62</v>
       </c>
@@ -21702,8 +23504,11 @@
       <c r="G332" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H332" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="333" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B333" s="1" t="s">
         <v>62</v>
       </c>
@@ -21719,8 +23524,11 @@
       <c r="G333" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H333" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="334" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B334" s="1" t="s">
         <v>62</v>
       </c>
@@ -21736,8 +23544,11 @@
       <c r="G334" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="335" spans="2:7" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H334" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="335" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B335" s="1" t="s">
         <v>62</v>
       </c>
@@ -21752,6 +23563,1033 @@
       </c>
       <c r="G335" s="1">
         <v>1</v>
+      </c>
+      <c r="H335" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="336" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B336" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C336" s="1">
+        <v>9</v>
+      </c>
+      <c r="D336" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E336" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G336" s="1">
+        <v>1</v>
+      </c>
+      <c r="H336" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B337" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C337" s="1">
+        <v>9</v>
+      </c>
+      <c r="D337" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E337" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G337" s="1">
+        <v>1</v>
+      </c>
+      <c r="H337" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B338" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C338" s="1">
+        <v>9</v>
+      </c>
+      <c r="D338" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E338" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G338" s="1">
+        <v>1</v>
+      </c>
+      <c r="H338" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A339" s="2"/>
+      <c r="B339" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D339" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E339" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G339" s="1">
+        <v>0</v>
+      </c>
+      <c r="H339" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A340" s="2"/>
+      <c r="B340" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D340" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E340" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G340" s="1">
+        <v>0</v>
+      </c>
+      <c r="H340" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A341" s="2"/>
+      <c r="B341" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D341" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E341" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G341" s="1">
+        <v>0</v>
+      </c>
+      <c r="H341" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A342" s="2"/>
+      <c r="B342" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D342" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E342" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G342" s="1">
+        <v>0</v>
+      </c>
+      <c r="H342" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A343" s="2"/>
+      <c r="B343" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D343" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E343" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G343" s="1">
+        <v>0</v>
+      </c>
+      <c r="H343" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A344" s="2"/>
+      <c r="B344" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D344" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E344" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G344" s="1">
+        <v>0</v>
+      </c>
+      <c r="H344" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A345" s="2"/>
+      <c r="B345" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D345" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E345" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G345" s="1">
+        <v>0</v>
+      </c>
+      <c r="H345" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A346" s="2"/>
+      <c r="B346" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D346" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E346" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G346" s="1">
+        <v>0</v>
+      </c>
+      <c r="H346" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A347" s="2"/>
+      <c r="B347" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D347" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E347" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G347" s="1">
+        <v>0</v>
+      </c>
+      <c r="H347" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A348" s="2"/>
+      <c r="B348" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D348" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E348" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G348" s="1">
+        <v>0</v>
+      </c>
+      <c r="H348" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A349" s="2"/>
+      <c r="B349" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D349" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E349" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G349" s="1">
+        <v>0</v>
+      </c>
+      <c r="H349" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A350" s="2"/>
+      <c r="B350" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D350" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E350" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G350" s="1">
+        <v>0</v>
+      </c>
+      <c r="H350" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B351" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D351" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E351" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G351" s="1">
+        <v>0</v>
+      </c>
+      <c r="H351" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B352" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D352" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E352" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G352" s="1">
+        <v>0</v>
+      </c>
+      <c r="H352" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="353" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B353" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D353" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E353" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G353" s="1">
+        <v>0</v>
+      </c>
+      <c r="H353" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="354" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B354" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D354" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E354" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G354" s="1">
+        <v>0</v>
+      </c>
+      <c r="H354" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="355" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B355" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D355" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E355" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G355" s="1">
+        <v>0</v>
+      </c>
+      <c r="H355" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="356" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B356" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D356" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E356" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G356" s="1">
+        <v>0</v>
+      </c>
+      <c r="H356" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="357" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B357" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D357" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E357" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G357" s="1">
+        <v>0</v>
+      </c>
+      <c r="H357" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="358" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B358" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D358" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E358" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G358" s="1">
+        <v>0</v>
+      </c>
+      <c r="H358" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="359" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B359" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D359" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E359" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G359" s="1">
+        <v>0</v>
+      </c>
+      <c r="H359" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="360" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B360" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D360" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E360" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G360" s="1">
+        <v>0</v>
+      </c>
+      <c r="H360" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="361" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B361" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D361" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E361" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G361" s="1">
+        <v>0</v>
+      </c>
+      <c r="H361" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="362" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B362" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D362" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E362" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G362" s="1">
+        <v>0</v>
+      </c>
+      <c r="H362" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="363" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B363" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D363" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E363" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G363" s="1">
+        <v>0</v>
+      </c>
+      <c r="H363" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="364" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B364" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D364" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E364" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G364" s="1">
+        <v>0</v>
+      </c>
+      <c r="H364" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="365" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B365" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D365" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E365" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G365" s="1">
+        <v>0</v>
+      </c>
+      <c r="H365" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="366" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B366" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D366" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E366" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G366" s="1">
+        <v>0</v>
+      </c>
+      <c r="H366" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="367" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B367" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D367" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E367" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G367" s="1">
+        <v>0</v>
+      </c>
+      <c r="H367" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="368" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B368" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D368" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E368" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G368" s="1">
+        <v>0</v>
+      </c>
+      <c r="H368" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="369" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B369" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D369" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E369" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G369" s="1">
+        <v>0</v>
+      </c>
+      <c r="H369" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="370" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B370" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D370" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E370" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G370" s="1">
+        <v>0</v>
+      </c>
+      <c r="H370" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="371" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B371" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D371" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E371" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G371" s="1">
+        <v>0</v>
+      </c>
+      <c r="H371" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="372" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B372" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D372" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E372" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G372" s="1">
+        <v>0</v>
+      </c>
+      <c r="H372" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="373" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B373" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D373" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E373" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G373" s="1">
+        <v>0</v>
+      </c>
+      <c r="H373" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="374" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B374" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D374" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E374" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G374" s="1">
+        <v>0</v>
+      </c>
+      <c r="H374" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="375" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B375" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D375" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E375" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G375" s="1">
+        <v>0</v>
+      </c>
+      <c r="H375" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="376" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B376" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D376" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E376" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G376" s="1">
+        <v>0</v>
+      </c>
+      <c r="H376" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="377" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B377" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D377" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E377" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G377" s="1">
+        <v>0</v>
+      </c>
+      <c r="H377" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="378" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B378" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D378" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E378" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G378" s="1">
+        <v>0</v>
+      </c>
+      <c r="H378" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="379" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B379" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D379" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E379" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G379" s="1">
+        <v>0</v>
+      </c>
+      <c r="H379" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="380" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B380" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D380" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E380" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G380" s="1">
+        <v>0</v>
+      </c>
+      <c r="H380" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="381" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B381" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D381" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E381" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G381" s="1">
+        <v>0</v>
+      </c>
+      <c r="H381" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="382" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B382" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D382" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E382" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G382" s="1">
+        <v>0</v>
+      </c>
+      <c r="H382" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="383" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B383" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D383" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E383" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G383" s="1">
+        <v>0</v>
+      </c>
+      <c r="H383" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="384" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B384" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D384" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E384" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G384" s="1">
+        <v>0</v>
+      </c>
+      <c r="H384" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="385" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B385" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D385" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E385" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G385" s="1">
+        <v>0</v>
+      </c>
+      <c r="H385" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="386" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B386" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D386" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E386" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G386" s="1">
+        <v>0</v>
+      </c>
+      <c r="H386" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="387" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B387" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D387" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E387" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G387" s="1">
+        <v>0</v>
+      </c>
+      <c r="H387" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="388" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B388" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D388" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E388" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G388" s="1">
+        <v>0</v>
+      </c>
+      <c r="H388" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="389" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B389" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D389" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E389" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G389" s="1">
+        <v>0</v>
+      </c>
+      <c r="H389" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="390" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B390" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D390" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E390" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G390" s="1">
+        <v>0</v>
+      </c>
+      <c r="H390" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="391" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B391" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D391" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E391" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G391" s="1">
+        <v>0</v>
+      </c>
+      <c r="H391" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="392" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B392" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D392" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E392" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G392" s="1">
+        <v>0</v>
+      </c>
+      <c r="H392" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="393" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B393" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D393" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E393" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G393" s="1">
+        <v>0</v>
+      </c>
+      <c r="H393" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="394" spans="2:8" ht="100" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B394" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D394" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E394" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G394" s="1">
+        <v>0</v>
+      </c>
+      <c r="H394" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
